--- a/week-02/21130091_DoanNhatLinh/21130091_Testplan.xlsx
+++ b/week-02/21130091_DoanNhatLinh/21130091_Testplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/20cb2f48035dfd24/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tester\week-02\21130091_DoanNhatLinh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21997475-540E-4819-86DE-C7F9FDD53072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD702E19-37C9-403D-9654-A8B11B2C4ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="202">
   <si>
     <t>TEST PLAN</t>
   </si>
@@ -846,6 +846,9 @@
   </si>
   <si>
     <t>21130126_Võ Hoàng Nhi</t>
+  </si>
+  <si>
+    <t>Đánh giá sản phẩm, sản phẩm yêu thích và gian hàng đang theo dõi.</t>
   </si>
 </sst>
 </file>
@@ -2558,7 +2561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3101,9 +3104,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3125,8 +3125,53 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3136,30 +3181,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3188,35 +3209,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3257,14 +3257,86 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3302,102 +3374,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3422,23 +3398,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3463,7 +3463,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3481,7 +3481,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -4003,7 +4003,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="161925" y="1714500"/>
+          <a:off x="158750" y="1685925"/>
           <a:ext cx="2486025" cy="342900"/>
           <a:chOff x="4102988" y="3608550"/>
           <a:chExt cx="2486025" cy="342900"/>
@@ -4363,14 +4363,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="26" width="8" customWidth="1"/>
@@ -4407,13 +4407,13 @@
     <row r="2" spans="1:26" ht="72" customHeight="1">
       <c r="A2" s="151"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="193"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -4436,12 +4436,12 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="216"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="217"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="196"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4467,7 +4467,7 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="218" t="s">
+      <c r="C4" s="197" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="198"/>
@@ -4503,7 +4503,7 @@
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="200" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="201"/>
@@ -4539,11 +4539,11 @@
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="221"/>
-      <c r="E6" s="222"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="205"/>
       <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
@@ -4575,11 +4575,11 @@
       <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="203" t="s">
+      <c r="C7" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="193"/>
-      <c r="E7" s="194"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="208"/>
       <c r="F7" s="12" t="s">
         <v>14</v>
       </c>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="196"/>
+      <c r="C9" s="195"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -4678,10 +4678,10 @@
       <c r="E10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="205" t="s">
+      <c r="F10" s="211" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="206"/>
+      <c r="G10" s="212"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -4714,8 +4714,8 @@
         <v>21</v>
       </c>
       <c r="E11" s="16"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="208"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="214"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -4742,8 +4742,8 @@
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="210"/>
+      <c r="F12" s="215"/>
+      <c r="G12" s="216"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -4794,10 +4794,10 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="195" t="s">
+      <c r="B14" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="196"/>
+      <c r="C14" s="195"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -4827,7 +4827,7 @@
       <c r="B15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="211" t="s">
+      <c r="C15" s="217" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="198"/>
@@ -4861,7 +4861,7 @@
       <c r="B16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="212" t="s">
+      <c r="C16" s="218" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="201"/>
@@ -4893,7 +4893,7 @@
       <c r="B17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="204" t="s">
+      <c r="C17" s="210" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="201"/>
@@ -4925,7 +4925,7 @@
       <c r="B18" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="204" t="s">
+      <c r="C18" s="210" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="201"/>
@@ -4957,7 +4957,7 @@
       <c r="B19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="204" t="s">
+      <c r="C19" s="210" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="201"/>
@@ -4989,7 +4989,7 @@
       <c r="B20" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="204" t="s">
+      <c r="C20" s="210" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="201"/>
@@ -5021,12 +5021,12 @@
       <c r="B21" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="192" t="s">
+      <c r="C21" s="219" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="194"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
       <c r="G21" s="26" t="s">
         <v>38</v>
       </c>
@@ -5080,10 +5080,10 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1">
       <c r="A23" s="153"/>
-      <c r="B23" s="195" t="s">
+      <c r="B23" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="196"/>
+      <c r="C23" s="195"/>
       <c r="D23" s="154"/>
       <c r="E23" s="154"/>
       <c r="F23" s="154"/>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="24" spans="1:26" ht="18" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="197" t="s">
+      <c r="B24" s="220" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="198"/>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="200" t="s">
+      <c r="B25" s="221" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="201"/>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="200"/>
+      <c r="B26" s="221"/>
       <c r="C26" s="201"/>
       <c r="D26" s="201"/>
       <c r="E26" s="202"/>
@@ -10774,426 +10774,21 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A226" s="184"/>
-      <c r="B226" s="184"/>
-      <c r="C226" s="184"/>
-      <c r="D226" s="184"/>
-      <c r="E226" s="184"/>
-      <c r="F226" s="184"/>
-      <c r="G226" s="184"/>
-      <c r="H226" s="184"/>
-      <c r="I226" s="184"/>
-      <c r="J226" s="184"/>
-      <c r="K226" s="184"/>
-      <c r="L226" s="184"/>
-      <c r="M226" s="184"/>
-      <c r="N226" s="184"/>
-      <c r="O226" s="184"/>
-      <c r="P226" s="184"/>
-      <c r="Q226" s="184"/>
-      <c r="R226" s="184"/>
-      <c r="S226" s="184"/>
-      <c r="T226" s="184"/>
-      <c r="U226" s="184"/>
-      <c r="V226" s="184"/>
-      <c r="W226" s="184"/>
-      <c r="X226" s="184"/>
-      <c r="Y226" s="184"/>
-      <c r="Z226" s="184"/>
-    </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A227" s="184"/>
-      <c r="B227" s="184"/>
-      <c r="C227" s="184"/>
-      <c r="D227" s="184"/>
-      <c r="E227" s="184"/>
-      <c r="F227" s="184"/>
-      <c r="G227" s="184"/>
-      <c r="H227" s="184"/>
-      <c r="I227" s="184"/>
-      <c r="J227" s="184"/>
-      <c r="K227" s="184"/>
-      <c r="L227" s="184"/>
-      <c r="M227" s="184"/>
-      <c r="N227" s="184"/>
-      <c r="O227" s="184"/>
-      <c r="P227" s="184"/>
-      <c r="Q227" s="184"/>
-      <c r="R227" s="184"/>
-      <c r="S227" s="184"/>
-      <c r="T227" s="184"/>
-      <c r="U227" s="184"/>
-      <c r="V227" s="184"/>
-      <c r="W227" s="184"/>
-      <c r="X227" s="184"/>
-      <c r="Y227" s="184"/>
-      <c r="Z227" s="184"/>
-    </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A228" s="184"/>
-      <c r="B228" s="184"/>
-      <c r="C228" s="184"/>
-      <c r="D228" s="184"/>
-      <c r="E228" s="184"/>
-      <c r="F228" s="184"/>
-      <c r="G228" s="184"/>
-      <c r="H228" s="184"/>
-      <c r="I228" s="184"/>
-      <c r="J228" s="184"/>
-      <c r="K228" s="184"/>
-      <c r="L228" s="184"/>
-      <c r="M228" s="184"/>
-      <c r="N228" s="184"/>
-      <c r="O228" s="184"/>
-      <c r="P228" s="184"/>
-      <c r="Q228" s="184"/>
-      <c r="R228" s="184"/>
-      <c r="S228" s="184"/>
-      <c r="T228" s="184"/>
-      <c r="U228" s="184"/>
-      <c r="V228" s="184"/>
-      <c r="W228" s="184"/>
-      <c r="X228" s="184"/>
-      <c r="Y228" s="184"/>
-      <c r="Z228" s="184"/>
-    </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A229" s="184"/>
-      <c r="B229" s="184"/>
-      <c r="C229" s="184"/>
-      <c r="D229" s="184"/>
-      <c r="E229" s="184"/>
-      <c r="F229" s="184"/>
-      <c r="G229" s="184"/>
-      <c r="H229" s="184"/>
-      <c r="I229" s="184"/>
-      <c r="J229" s="184"/>
-      <c r="K229" s="184"/>
-      <c r="L229" s="184"/>
-      <c r="M229" s="184"/>
-      <c r="N229" s="184"/>
-      <c r="O229" s="184"/>
-      <c r="P229" s="184"/>
-      <c r="Q229" s="184"/>
-      <c r="R229" s="184"/>
-      <c r="S229" s="184"/>
-      <c r="T229" s="184"/>
-      <c r="U229" s="184"/>
-      <c r="V229" s="184"/>
-      <c r="W229" s="184"/>
-      <c r="X229" s="184"/>
-      <c r="Y229" s="184"/>
-      <c r="Z229" s="184"/>
-    </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A230" s="184"/>
-      <c r="B230" s="184"/>
-      <c r="C230" s="184"/>
-      <c r="D230" s="184"/>
-      <c r="E230" s="184"/>
-      <c r="F230" s="184"/>
-      <c r="G230" s="184"/>
-      <c r="H230" s="184"/>
-      <c r="I230" s="184"/>
-      <c r="J230" s="184"/>
-      <c r="K230" s="184"/>
-      <c r="L230" s="184"/>
-      <c r="M230" s="184"/>
-      <c r="N230" s="184"/>
-      <c r="O230" s="184"/>
-      <c r="P230" s="184"/>
-      <c r="Q230" s="184"/>
-      <c r="R230" s="184"/>
-      <c r="S230" s="184"/>
-      <c r="T230" s="184"/>
-      <c r="U230" s="184"/>
-      <c r="V230" s="184"/>
-      <c r="W230" s="184"/>
-      <c r="X230" s="184"/>
-      <c r="Y230" s="184"/>
-      <c r="Z230" s="184"/>
-    </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A231" s="184"/>
-      <c r="B231" s="184"/>
-      <c r="C231" s="184"/>
-      <c r="D231" s="184"/>
-      <c r="E231" s="184"/>
-      <c r="F231" s="184"/>
-      <c r="G231" s="184"/>
-      <c r="H231" s="184"/>
-      <c r="I231" s="184"/>
-      <c r="J231" s="184"/>
-      <c r="K231" s="184"/>
-      <c r="L231" s="184"/>
-      <c r="M231" s="184"/>
-      <c r="N231" s="184"/>
-      <c r="O231" s="184"/>
-      <c r="P231" s="184"/>
-      <c r="Q231" s="184"/>
-      <c r="R231" s="184"/>
-      <c r="S231" s="184"/>
-      <c r="T231" s="184"/>
-      <c r="U231" s="184"/>
-      <c r="V231" s="184"/>
-      <c r="W231" s="184"/>
-      <c r="X231" s="184"/>
-      <c r="Y231" s="184"/>
-      <c r="Z231" s="184"/>
-    </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A232" s="184"/>
-      <c r="B232" s="184"/>
-      <c r="C232" s="184"/>
-      <c r="D232" s="184"/>
-      <c r="E232" s="184"/>
-      <c r="F232" s="184"/>
-      <c r="G232" s="184"/>
-      <c r="H232" s="184"/>
-      <c r="I232" s="184"/>
-      <c r="J232" s="184"/>
-      <c r="K232" s="184"/>
-      <c r="L232" s="184"/>
-      <c r="M232" s="184"/>
-      <c r="N232" s="184"/>
-      <c r="O232" s="184"/>
-      <c r="P232" s="184"/>
-      <c r="Q232" s="184"/>
-      <c r="R232" s="184"/>
-      <c r="S232" s="184"/>
-      <c r="T232" s="184"/>
-      <c r="U232" s="184"/>
-      <c r="V232" s="184"/>
-      <c r="W232" s="184"/>
-      <c r="X232" s="184"/>
-      <c r="Y232" s="184"/>
-      <c r="Z232" s="184"/>
-    </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A233" s="184"/>
-      <c r="B233" s="184"/>
-      <c r="C233" s="184"/>
-      <c r="D233" s="184"/>
-      <c r="E233" s="184"/>
-      <c r="F233" s="184"/>
-      <c r="G233" s="184"/>
-      <c r="H233" s="184"/>
-      <c r="I233" s="184"/>
-      <c r="J233" s="184"/>
-      <c r="K233" s="184"/>
-      <c r="L233" s="184"/>
-      <c r="M233" s="184"/>
-      <c r="N233" s="184"/>
-      <c r="O233" s="184"/>
-      <c r="P233" s="184"/>
-      <c r="Q233" s="184"/>
-      <c r="R233" s="184"/>
-      <c r="S233" s="184"/>
-      <c r="T233" s="184"/>
-      <c r="U233" s="184"/>
-      <c r="V233" s="184"/>
-      <c r="W233" s="184"/>
-      <c r="X233" s="184"/>
-      <c r="Y233" s="184"/>
-      <c r="Z233" s="184"/>
-    </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A234" s="184"/>
-      <c r="B234" s="184"/>
-      <c r="C234" s="184"/>
-      <c r="D234" s="184"/>
-      <c r="E234" s="184"/>
-      <c r="F234" s="184"/>
-      <c r="G234" s="184"/>
-      <c r="H234" s="184"/>
-      <c r="I234" s="184"/>
-      <c r="J234" s="184"/>
-      <c r="K234" s="184"/>
-      <c r="L234" s="184"/>
-      <c r="M234" s="184"/>
-      <c r="N234" s="184"/>
-      <c r="O234" s="184"/>
-      <c r="P234" s="184"/>
-      <c r="Q234" s="184"/>
-      <c r="R234" s="184"/>
-      <c r="S234" s="184"/>
-      <c r="T234" s="184"/>
-      <c r="U234" s="184"/>
-      <c r="V234" s="184"/>
-      <c r="W234" s="184"/>
-      <c r="X234" s="184"/>
-      <c r="Y234" s="184"/>
-      <c r="Z234" s="184"/>
-    </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A235" s="184"/>
-      <c r="B235" s="184"/>
-      <c r="C235" s="184"/>
-      <c r="D235" s="184"/>
-      <c r="E235" s="184"/>
-      <c r="F235" s="184"/>
-      <c r="G235" s="184"/>
-      <c r="H235" s="184"/>
-      <c r="I235" s="184"/>
-      <c r="J235" s="184"/>
-      <c r="K235" s="184"/>
-      <c r="L235" s="184"/>
-      <c r="M235" s="184"/>
-      <c r="N235" s="184"/>
-      <c r="O235" s="184"/>
-      <c r="P235" s="184"/>
-      <c r="Q235" s="184"/>
-      <c r="R235" s="184"/>
-      <c r="S235" s="184"/>
-      <c r="T235" s="184"/>
-      <c r="U235" s="184"/>
-      <c r="V235" s="184"/>
-      <c r="W235" s="184"/>
-      <c r="X235" s="184"/>
-      <c r="Y235" s="184"/>
-      <c r="Z235" s="184"/>
-    </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A236" s="184"/>
-      <c r="B236" s="184"/>
-      <c r="C236" s="184"/>
-      <c r="D236" s="184"/>
-      <c r="E236" s="184"/>
-      <c r="F236" s="184"/>
-      <c r="G236" s="184"/>
-      <c r="H236" s="184"/>
-      <c r="I236" s="184"/>
-      <c r="J236" s="184"/>
-      <c r="K236" s="184"/>
-      <c r="L236" s="184"/>
-      <c r="M236" s="184"/>
-      <c r="N236" s="184"/>
-      <c r="O236" s="184"/>
-      <c r="P236" s="184"/>
-      <c r="Q236" s="184"/>
-      <c r="R236" s="184"/>
-      <c r="S236" s="184"/>
-      <c r="T236" s="184"/>
-      <c r="U236" s="184"/>
-      <c r="V236" s="184"/>
-      <c r="W236" s="184"/>
-      <c r="X236" s="184"/>
-      <c r="Y236" s="184"/>
-      <c r="Z236" s="184"/>
-    </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A237" s="184"/>
-      <c r="B237" s="184"/>
-      <c r="C237" s="184"/>
-      <c r="D237" s="184"/>
-      <c r="E237" s="184"/>
-      <c r="F237" s="184"/>
-      <c r="G237" s="184"/>
-      <c r="H237" s="184"/>
-      <c r="I237" s="184"/>
-      <c r="J237" s="184"/>
-      <c r="K237" s="184"/>
-      <c r="L237" s="184"/>
-      <c r="M237" s="184"/>
-      <c r="N237" s="184"/>
-      <c r="O237" s="184"/>
-      <c r="P237" s="184"/>
-      <c r="Q237" s="184"/>
-      <c r="R237" s="184"/>
-      <c r="S237" s="184"/>
-      <c r="T237" s="184"/>
-      <c r="U237" s="184"/>
-      <c r="V237" s="184"/>
-      <c r="W237" s="184"/>
-      <c r="X237" s="184"/>
-      <c r="Y237" s="184"/>
-      <c r="Z237" s="184"/>
-    </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A238" s="184"/>
-      <c r="B238" s="184"/>
-      <c r="C238" s="184"/>
-      <c r="D238" s="184"/>
-      <c r="E238" s="184"/>
-      <c r="F238" s="184"/>
-      <c r="G238" s="184"/>
-      <c r="H238" s="184"/>
-      <c r="I238" s="184"/>
-      <c r="J238" s="184"/>
-      <c r="K238" s="184"/>
-      <c r="L238" s="184"/>
-      <c r="M238" s="184"/>
-      <c r="N238" s="184"/>
-      <c r="O238" s="184"/>
-      <c r="P238" s="184"/>
-      <c r="Q238" s="184"/>
-      <c r="R238" s="184"/>
-      <c r="S238" s="184"/>
-      <c r="T238" s="184"/>
-      <c r="U238" s="184"/>
-      <c r="V238" s="184"/>
-      <c r="W238" s="184"/>
-      <c r="X238" s="184"/>
-      <c r="Y238" s="184"/>
-      <c r="Z238" s="184"/>
-    </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A239" s="184"/>
-      <c r="B239" s="184"/>
-      <c r="C239" s="184"/>
-      <c r="D239" s="184"/>
-      <c r="E239" s="184"/>
-      <c r="F239" s="184"/>
-      <c r="G239" s="184"/>
-      <c r="H239" s="184"/>
-      <c r="I239" s="184"/>
-      <c r="J239" s="184"/>
-      <c r="K239" s="184"/>
-      <c r="L239" s="184"/>
-      <c r="M239" s="184"/>
-      <c r="N239" s="184"/>
-      <c r="O239" s="184"/>
-      <c r="P239" s="184"/>
-      <c r="Q239" s="184"/>
-      <c r="R239" s="184"/>
-      <c r="S239" s="184"/>
-      <c r="T239" s="184"/>
-      <c r="U239" s="184"/>
-      <c r="V239" s="184"/>
-      <c r="W239" s="184"/>
-      <c r="X239" s="184"/>
-      <c r="Y239" s="184"/>
-      <c r="Z239" s="184"/>
-    </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A240" s="184"/>
-      <c r="B240" s="184"/>
-      <c r="C240" s="184"/>
-      <c r="D240" s="184"/>
-      <c r="E240" s="184"/>
-      <c r="F240" s="184"/>
-      <c r="G240" s="184"/>
-      <c r="H240" s="184"/>
-      <c r="I240" s="184"/>
-      <c r="J240" s="184"/>
-      <c r="K240" s="184"/>
-      <c r="L240" s="184"/>
-      <c r="M240" s="184"/>
-      <c r="N240" s="184"/>
-      <c r="O240" s="184"/>
-      <c r="P240" s="184"/>
-      <c r="Q240" s="184"/>
-      <c r="R240" s="184"/>
-      <c r="S240" s="184"/>
-      <c r="T240" s="184"/>
-      <c r="U240" s="184"/>
-      <c r="V240" s="184"/>
-      <c r="W240" s="184"/>
-      <c r="X240" s="184"/>
-      <c r="Y240" s="184"/>
-      <c r="Z240" s="184"/>
-    </row>
+    <row r="226" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="227" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="228" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="229" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="230" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="231" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="232" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="233" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="234" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="235" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="236" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="237" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="238" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="239" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="240" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -11956,11 +11551,11 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="C18:F18"/>
@@ -11973,11 +11568,11 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -11996,15 +11591,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="57.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="60.83203125" customWidth="1"/>
+    <col min="3" max="3" width="57.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="60.77734375" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
     <col min="8" max="25" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12036,13 +11631,13 @@
       <c r="Y1" s="30"/>
     </row>
     <row r="2" spans="1:25" ht="26.25" customHeight="1">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
       <c r="F2" s="32"/>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
@@ -12065,11 +11660,11 @@
       <c r="Y2" s="30"/>
     </row>
     <row r="3" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A3" s="230"/>
-      <c r="B3" s="230"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
+      <c r="A3" s="229"/>
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
       <c r="F3" s="31"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
@@ -12154,7 +11749,7 @@
       <c r="B6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="185" t="s">
+      <c r="C6" s="184" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="38" t="s">
@@ -12359,13 +11954,13 @@
       <c r="B13" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="185" t="s">
+      <c r="C13" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="231" t="s">
+      <c r="D13" s="230" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="206"/>
+      <c r="E13" s="212"/>
       <c r="F13" s="48"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
@@ -12392,9 +11987,9 @@
       <c r="B14" s="40">
         <v>1</v>
       </c>
-      <c r="C14" s="188"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="233"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="231"/>
+      <c r="E14" s="232"/>
       <c r="F14" s="48"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
@@ -12422,8 +12017,8 @@
         <v>2</v>
       </c>
       <c r="C15" s="50"/>
-      <c r="D15" s="234"/>
-      <c r="E15" s="235"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="234"/>
       <c r="F15" s="48"/>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
@@ -12535,7 +12130,7 @@
       <c r="B19" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="185" t="s">
+      <c r="C19" s="184" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="53" t="s">
@@ -12709,7 +12304,7 @@
       <c r="B25" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="185" t="s">
+      <c r="C25" s="184" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="38" t="s">
@@ -12744,7 +12339,7 @@
       <c r="B26" s="62">
         <v>1</v>
       </c>
-      <c r="C26" s="191" t="s">
+      <c r="C26" s="190" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="63"/>
@@ -12924,13 +12519,13 @@
       <c r="B32" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="185" t="s">
+      <c r="C32" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="231" t="s">
+      <c r="D32" s="230" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="206"/>
+      <c r="E32" s="212"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
@@ -12957,11 +12552,11 @@
       <c r="B33" s="68">
         <v>1</v>
       </c>
-      <c r="C33" s="191" t="s">
+      <c r="C33" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="234"/>
-      <c r="E33" s="235"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="234"/>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
@@ -12988,11 +12583,11 @@
       <c r="B34" s="68">
         <v>2</v>
       </c>
-      <c r="C34" s="191" t="s">
+      <c r="C34" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="223"/>
-      <c r="E34" s="224"/>
+      <c r="D34" s="222"/>
+      <c r="E34" s="223"/>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
@@ -13019,11 +12614,11 @@
       <c r="B35" s="68">
         <v>3</v>
       </c>
-      <c r="C35" s="191" t="s">
+      <c r="C35" s="190" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="223"/>
-      <c r="E35" s="224"/>
+      <c r="D35" s="222"/>
+      <c r="E35" s="223"/>
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
       <c r="H35" s="31"/>
@@ -13050,11 +12645,11 @@
       <c r="B36" s="68">
         <v>4</v>
       </c>
-      <c r="C36" s="191" t="s">
+      <c r="C36" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="225"/>
-      <c r="E36" s="226"/>
+      <c r="D36" s="224"/>
+      <c r="E36" s="225"/>
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
       <c r="H36" s="31"/>
@@ -13084,10 +12679,10 @@
       <c r="C37" s="183" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="227" t="s">
+      <c r="D37" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="208"/>
+      <c r="E37" s="214"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -13114,11 +12709,11 @@
       <c r="B38" s="70">
         <v>1</v>
       </c>
-      <c r="C38" s="191" t="s">
+      <c r="C38" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="228"/>
-      <c r="E38" s="226"/>
+      <c r="D38" s="227"/>
+      <c r="E38" s="225"/>
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
       <c r="H38" s="31"/>
@@ -18540,60 +18135,8 @@
       <c r="X238" s="30"/>
       <c r="Y238" s="30"/>
     </row>
-    <row r="239" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A239" s="184"/>
-      <c r="B239" s="184"/>
-      <c r="C239" s="184"/>
-      <c r="D239" s="184"/>
-      <c r="E239" s="184"/>
-      <c r="F239" s="184"/>
-      <c r="G239" s="184"/>
-      <c r="H239" s="184"/>
-      <c r="I239" s="184"/>
-      <c r="J239" s="184"/>
-      <c r="K239" s="184"/>
-      <c r="L239" s="184"/>
-      <c r="M239" s="184"/>
-      <c r="N239" s="184"/>
-      <c r="O239" s="184"/>
-      <c r="P239" s="184"/>
-      <c r="Q239" s="184"/>
-      <c r="R239" s="184"/>
-      <c r="S239" s="184"/>
-      <c r="T239" s="184"/>
-      <c r="U239" s="184"/>
-      <c r="V239" s="184"/>
-      <c r="W239" s="184"/>
-      <c r="X239" s="184"/>
-      <c r="Y239" s="184"/>
-    </row>
-    <row r="240" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A240" s="184"/>
-      <c r="B240" s="184"/>
-      <c r="C240" s="184"/>
-      <c r="D240" s="184"/>
-      <c r="E240" s="184"/>
-      <c r="F240" s="184"/>
-      <c r="G240" s="184"/>
-      <c r="H240" s="184"/>
-      <c r="I240" s="184"/>
-      <c r="J240" s="184"/>
-      <c r="K240" s="184"/>
-      <c r="L240" s="184"/>
-      <c r="M240" s="184"/>
-      <c r="N240" s="184"/>
-      <c r="O240" s="184"/>
-      <c r="P240" s="184"/>
-      <c r="Q240" s="184"/>
-      <c r="R240" s="184"/>
-      <c r="S240" s="184"/>
-      <c r="T240" s="184"/>
-      <c r="U240" s="184"/>
-      <c r="V240" s="184"/>
-      <c r="W240" s="184"/>
-      <c r="X240" s="184"/>
-      <c r="Y240" s="184"/>
-    </row>
+    <row r="239" spans="1:25" ht="15.75" customHeight="1"/>
+    <row r="240" spans="1:25" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -19384,16 +18927,16 @@
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" customWidth="1"/>
-    <col min="5" max="5" width="30.5" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" customWidth="1"/>
-    <col min="8" max="8" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" customWidth="1"/>
     <col min="9" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19544,24 +19087,24 @@
       <c r="Z5" s="30"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="188" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="238" t="s">
+      <c r="B6" s="251" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="256"/>
-      <c r="D6" s="251" t="s">
+      <c r="C6" s="252"/>
+      <c r="D6" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="256"/>
+      <c r="E6" s="252"/>
       <c r="F6" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="251" t="s">
+      <c r="G6" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="222"/>
+      <c r="H6" s="205"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
@@ -19585,17 +19128,17 @@
       <c r="A7" s="74">
         <v>1</v>
       </c>
-      <c r="B7" s="259" t="s">
+      <c r="B7" s="248" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="253"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="253"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="237"/>
       <c r="F7" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="263"/>
-      <c r="H7" s="264"/>
+      <c r="G7" s="255"/>
+      <c r="H7" s="239"/>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -19619,17 +19162,17 @@
       <c r="A8" s="74">
         <v>2</v>
       </c>
-      <c r="B8" s="259" t="s">
+      <c r="B8" s="248" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="253"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="253"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="237"/>
       <c r="F8" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="260"/>
-      <c r="H8" s="264"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="239"/>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
@@ -19653,17 +19196,17 @@
       <c r="A9" s="74">
         <v>3</v>
       </c>
-      <c r="B9" s="257" t="s">
+      <c r="B9" s="250" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="253"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="253"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="249"/>
+      <c r="E9" s="237"/>
       <c r="F9" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="260"/>
-      <c r="H9" s="264"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="239"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
@@ -19687,17 +19230,17 @@
       <c r="A10" s="74">
         <v>4</v>
       </c>
-      <c r="B10" s="257" t="s">
+      <c r="B10" s="250" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="253"/>
-      <c r="D10" s="260"/>
-      <c r="E10" s="253"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="249"/>
+      <c r="E10" s="237"/>
       <c r="F10" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="260"/>
-      <c r="H10" s="264"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="239"/>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -19721,17 +19264,17 @@
       <c r="A11" s="74">
         <v>5</v>
       </c>
-      <c r="B11" s="259" t="s">
+      <c r="B11" s="248" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="253"/>
-      <c r="D11" s="260"/>
-      <c r="E11" s="253"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="249"/>
+      <c r="E11" s="237"/>
       <c r="F11" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="260"/>
-      <c r="H11" s="264"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="239"/>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
@@ -19755,17 +19298,17 @@
       <c r="A12" s="74">
         <v>6</v>
       </c>
-      <c r="B12" s="259" t="s">
+      <c r="B12" s="248" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="253"/>
-      <c r="D12" s="260"/>
-      <c r="E12" s="253"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="249"/>
+      <c r="E12" s="237"/>
       <c r="F12" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="260"/>
-      <c r="H12" s="264"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="239"/>
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
@@ -19789,17 +19332,17 @@
       <c r="A13" s="74">
         <v>7</v>
       </c>
-      <c r="B13" s="266" t="s">
+      <c r="B13" s="256" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="262"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="262"/>
+      <c r="C13" s="254"/>
+      <c r="D13" s="253"/>
+      <c r="E13" s="254"/>
       <c r="F13" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="261"/>
-      <c r="H13" s="265"/>
+      <c r="G13" s="253"/>
+      <c r="H13" s="243"/>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
@@ -19908,13 +19451,13 @@
       <c r="Z16" s="30"/>
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A17" s="189" t="s">
+      <c r="A17" s="188" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="238" t="s">
+      <c r="B17" s="251" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="256"/>
+      <c r="C17" s="252"/>
       <c r="D17" s="73" t="s">
         <v>83</v>
       </c>
@@ -19924,10 +19467,10 @@
       <c r="F17" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="251" t="s">
+      <c r="G17" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="222"/>
+      <c r="H17" s="205"/>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
@@ -19951,10 +19494,10 @@
       <c r="A18" s="75">
         <v>1</v>
       </c>
-      <c r="B18" s="257" t="s">
+      <c r="B18" s="250" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="253"/>
+      <c r="C18" s="237"/>
       <c r="D18" s="77" t="s">
         <v>20</v>
       </c>
@@ -19964,10 +19507,10 @@
       <c r="F18" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="252" t="s">
+      <c r="G18" s="235" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="253"/>
+      <c r="H18" s="237"/>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
@@ -19991,10 +19534,10 @@
       <c r="A19" s="78">
         <v>2</v>
       </c>
-      <c r="B19" s="258" t="s">
+      <c r="B19" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="255"/>
+      <c r="C19" s="258"/>
       <c r="D19" s="77" t="s">
         <v>20</v>
       </c>
@@ -20004,8 +19547,8 @@
       <c r="F19" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="254"/>
-      <c r="H19" s="255"/>
+      <c r="G19" s="259"/>
+      <c r="H19" s="258"/>
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
@@ -20029,10 +19572,10 @@
       <c r="A20" s="75">
         <v>3</v>
       </c>
-      <c r="B20" s="257" t="s">
+      <c r="B20" s="250" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="253"/>
+      <c r="C20" s="237"/>
       <c r="D20" s="77" t="s">
         <v>20</v>
       </c>
@@ -20042,8 +19585,8 @@
       <c r="F20" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="252"/>
-      <c r="H20" s="253"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="237"/>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
@@ -20067,10 +19610,10 @@
       <c r="A21" s="75">
         <v>4</v>
       </c>
-      <c r="B21" s="257" t="s">
+      <c r="B21" s="250" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="253"/>
+      <c r="C21" s="237"/>
       <c r="D21" s="77" t="s">
         <v>20</v>
       </c>
@@ -20080,8 +19623,8 @@
       <c r="F21" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="252"/>
-      <c r="H21" s="253"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="237"/>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
@@ -20190,19 +19733,19 @@
       <c r="Z24" s="30"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="190" t="s">
+      <c r="A25" s="189" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="239" t="s">
+      <c r="B25" s="262" t="s">
         <v>95</v>
       </c>
       <c r="C25" s="202"/>
-      <c r="D25" s="227" t="s">
+      <c r="D25" s="226" t="s">
         <v>96</v>
       </c>
       <c r="E25" s="201"/>
       <c r="F25" s="202"/>
-      <c r="G25" s="227" t="s">
+      <c r="G25" s="226" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="202"/>
@@ -20229,13 +19772,13 @@
       <c r="A26" s="79">
         <v>1</v>
       </c>
-      <c r="B26" s="240"/>
-      <c r="C26" s="241"/>
-      <c r="D26" s="244"/>
-      <c r="E26" s="245"/>
-      <c r="F26" s="241"/>
-      <c r="G26" s="244"/>
-      <c r="H26" s="241"/>
+      <c r="B26" s="263"/>
+      <c r="C26" s="264"/>
+      <c r="D26" s="267"/>
+      <c r="E26" s="268"/>
+      <c r="F26" s="264"/>
+      <c r="G26" s="267"/>
+      <c r="H26" s="264"/>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
@@ -20259,13 +19802,13 @@
       <c r="A27" s="80">
         <v>2</v>
       </c>
-      <c r="B27" s="242"/>
-      <c r="C27" s="243"/>
-      <c r="D27" s="246"/>
-      <c r="E27" s="247"/>
-      <c r="F27" s="243"/>
-      <c r="G27" s="248"/>
-      <c r="H27" s="243"/>
+      <c r="B27" s="265"/>
+      <c r="C27" s="266"/>
+      <c r="D27" s="269"/>
+      <c r="E27" s="270"/>
+      <c r="F27" s="266"/>
+      <c r="G27" s="271"/>
+      <c r="H27" s="266"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
@@ -20289,13 +19832,13 @@
       <c r="A28" s="81">
         <v>3</v>
       </c>
-      <c r="B28" s="236"/>
-      <c r="C28" s="237"/>
-      <c r="D28" s="249"/>
-      <c r="E28" s="250"/>
-      <c r="F28" s="237"/>
-      <c r="G28" s="249"/>
-      <c r="H28" s="237"/>
+      <c r="B28" s="260"/>
+      <c r="C28" s="261"/>
+      <c r="D28" s="272"/>
+      <c r="E28" s="273"/>
+      <c r="F28" s="261"/>
+      <c r="G28" s="272"/>
+      <c r="H28" s="261"/>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
@@ -20407,19 +19950,19 @@
       <c r="A32" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="238" t="s">
+      <c r="B32" s="251" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="221"/>
-      <c r="D32" s="222"/>
-      <c r="E32" s="238" t="s">
+      <c r="C32" s="204"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="251" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="222"/>
-      <c r="G32" s="238" t="s">
+      <c r="F32" s="205"/>
+      <c r="G32" s="251" t="s">
         <v>101</v>
       </c>
-      <c r="H32" s="222"/>
+      <c r="H32" s="205"/>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
@@ -20443,19 +19986,19 @@
       <c r="A33" s="83">
         <v>1</v>
       </c>
-      <c r="B33" s="252" t="s">
+      <c r="B33" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="268"/>
-      <c r="D33" s="253"/>
-      <c r="E33" s="252" t="s">
+      <c r="C33" s="236"/>
+      <c r="D33" s="237"/>
+      <c r="E33" s="235" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="253"/>
-      <c r="G33" s="252" t="s">
+      <c r="F33" s="237"/>
+      <c r="G33" s="235" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="253"/>
+      <c r="H33" s="237"/>
       <c r="I33" s="31"/>
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
@@ -20479,19 +20022,19 @@
       <c r="A34" s="83">
         <v>2</v>
       </c>
-      <c r="B34" s="252" t="s">
+      <c r="B34" s="235" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="268"/>
-      <c r="D34" s="253"/>
-      <c r="E34" s="252" t="s">
+      <c r="C34" s="236"/>
+      <c r="D34" s="237"/>
+      <c r="E34" s="235" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="253"/>
-      <c r="G34" s="252" t="s">
+      <c r="F34" s="237"/>
+      <c r="G34" s="235" t="s">
         <v>107</v>
       </c>
-      <c r="H34" s="253"/>
+      <c r="H34" s="237"/>
       <c r="I34" s="31"/>
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
@@ -20515,19 +20058,19 @@
       <c r="A35" s="83">
         <v>3</v>
       </c>
-      <c r="B35" s="252" t="s">
+      <c r="B35" s="235" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="268"/>
-      <c r="D35" s="253"/>
-      <c r="E35" s="252" t="s">
+      <c r="C35" s="236"/>
+      <c r="D35" s="237"/>
+      <c r="E35" s="235" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="253"/>
-      <c r="G35" s="252" t="s">
+      <c r="F35" s="237"/>
+      <c r="G35" s="235" t="s">
         <v>110</v>
       </c>
-      <c r="H35" s="253"/>
+      <c r="H35" s="237"/>
       <c r="I35" s="31"/>
       <c r="J35" s="31"/>
       <c r="K35" s="31"/>
@@ -20551,19 +20094,19 @@
       <c r="A36" s="83">
         <v>4</v>
       </c>
-      <c r="B36" s="252" t="s">
+      <c r="B36" s="235" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="268"/>
-      <c r="D36" s="253"/>
-      <c r="E36" s="252" t="s">
+      <c r="C36" s="236"/>
+      <c r="D36" s="237"/>
+      <c r="E36" s="235" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="253"/>
-      <c r="G36" s="252" t="s">
+      <c r="F36" s="237"/>
+      <c r="G36" s="235" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="253"/>
+      <c r="H36" s="237"/>
       <c r="I36" s="31"/>
       <c r="J36" s="31"/>
       <c r="K36" s="31"/>
@@ -20587,19 +20130,19 @@
       <c r="A37" s="83">
         <v>5</v>
       </c>
-      <c r="B37" s="252" t="s">
+      <c r="B37" s="235" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="268"/>
-      <c r="D37" s="253"/>
-      <c r="E37" s="252" t="s">
+      <c r="C37" s="236"/>
+      <c r="D37" s="237"/>
+      <c r="E37" s="235" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="253"/>
-      <c r="G37" s="252" t="s">
+      <c r="F37" s="237"/>
+      <c r="G37" s="235" t="s">
         <v>115</v>
       </c>
-      <c r="H37" s="253"/>
+      <c r="H37" s="237"/>
       <c r="I37" s="31"/>
       <c r="J37" s="31"/>
       <c r="K37" s="31"/>
@@ -20711,11 +20254,11 @@
       <c r="A41" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="269" t="s">
+      <c r="B41" s="240" t="s">
         <v>118</v>
       </c>
       <c r="C41" s="202"/>
-      <c r="D41" s="227" t="s">
+      <c r="D41" s="226" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="201"/>
@@ -20745,13 +20288,13 @@
       <c r="A42" s="85">
         <v>1</v>
       </c>
-      <c r="B42" s="270"/>
-      <c r="C42" s="264"/>
-      <c r="D42" s="270"/>
-      <c r="E42" s="268"/>
-      <c r="F42" s="268"/>
-      <c r="G42" s="268"/>
-      <c r="H42" s="264"/>
+      <c r="B42" s="241"/>
+      <c r="C42" s="239"/>
+      <c r="D42" s="241"/>
+      <c r="E42" s="236"/>
+      <c r="F42" s="236"/>
+      <c r="G42" s="236"/>
+      <c r="H42" s="239"/>
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
@@ -20775,13 +20318,13 @@
       <c r="A43" s="86">
         <v>2</v>
       </c>
-      <c r="B43" s="271"/>
-      <c r="C43" s="265"/>
-      <c r="D43" s="271"/>
-      <c r="E43" s="274"/>
-      <c r="F43" s="274"/>
-      <c r="G43" s="274"/>
-      <c r="H43" s="265"/>
+      <c r="B43" s="242"/>
+      <c r="C43" s="243"/>
+      <c r="D43" s="242"/>
+      <c r="E43" s="246"/>
+      <c r="F43" s="246"/>
+      <c r="G43" s="246"/>
+      <c r="H43" s="243"/>
       <c r="I43" s="30"/>
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
@@ -20893,11 +20436,11 @@
       <c r="A47" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="227" t="s">
+      <c r="B47" s="226" t="s">
         <v>121</v>
       </c>
       <c r="C47" s="202"/>
-      <c r="D47" s="227" t="s">
+      <c r="D47" s="226" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="202"/>
@@ -20933,10 +20476,10 @@
       <c r="A48" s="88">
         <v>1</v>
       </c>
-      <c r="B48" s="272"/>
-      <c r="C48" s="273"/>
-      <c r="D48" s="272"/>
-      <c r="E48" s="273"/>
+      <c r="B48" s="244"/>
+      <c r="C48" s="245"/>
+      <c r="D48" s="244"/>
+      <c r="E48" s="245"/>
       <c r="F48" s="89"/>
       <c r="G48" s="90"/>
       <c r="H48" s="90"/>
@@ -20963,10 +20506,10 @@
       <c r="A49" s="91">
         <v>2</v>
       </c>
-      <c r="B49" s="267"/>
-      <c r="C49" s="264"/>
-      <c r="D49" s="267"/>
-      <c r="E49" s="264"/>
+      <c r="B49" s="238"/>
+      <c r="C49" s="239"/>
+      <c r="D49" s="238"/>
+      <c r="E49" s="239"/>
       <c r="F49" s="92"/>
       <c r="G49" s="90"/>
       <c r="H49" s="90"/>
@@ -20993,10 +20536,10 @@
       <c r="A50" s="88">
         <v>3</v>
       </c>
-      <c r="B50" s="267"/>
-      <c r="C50" s="264"/>
-      <c r="D50" s="267"/>
-      <c r="E50" s="264"/>
+      <c r="B50" s="238"/>
+      <c r="C50" s="239"/>
+      <c r="D50" s="238"/>
+      <c r="E50" s="239"/>
       <c r="F50" s="92"/>
       <c r="G50" s="90"/>
       <c r="H50" s="90"/>
@@ -26619,174 +26162,12 @@
       <c r="Y250" s="30"/>
       <c r="Z250" s="30"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A251" s="184"/>
-      <c r="B251" s="184"/>
-      <c r="C251" s="184"/>
-      <c r="D251" s="184"/>
-      <c r="E251" s="184"/>
-      <c r="F251" s="184"/>
-      <c r="G251" s="184"/>
-      <c r="H251" s="184"/>
-      <c r="I251" s="184"/>
-      <c r="J251" s="184"/>
-      <c r="K251" s="184"/>
-      <c r="L251" s="184"/>
-      <c r="M251" s="184"/>
-      <c r="N251" s="184"/>
-      <c r="O251" s="184"/>
-      <c r="P251" s="184"/>
-      <c r="Q251" s="184"/>
-      <c r="R251" s="184"/>
-      <c r="S251" s="184"/>
-      <c r="T251" s="184"/>
-      <c r="U251" s="184"/>
-      <c r="V251" s="184"/>
-      <c r="W251" s="184"/>
-      <c r="X251" s="184"/>
-      <c r="Y251" s="184"/>
-      <c r="Z251" s="184"/>
-    </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A252" s="184"/>
-      <c r="B252" s="184"/>
-      <c r="C252" s="184"/>
-      <c r="D252" s="184"/>
-      <c r="E252" s="184"/>
-      <c r="F252" s="184"/>
-      <c r="G252" s="184"/>
-      <c r="H252" s="184"/>
-      <c r="I252" s="184"/>
-      <c r="J252" s="184"/>
-      <c r="K252" s="184"/>
-      <c r="L252" s="184"/>
-      <c r="M252" s="184"/>
-      <c r="N252" s="184"/>
-      <c r="O252" s="184"/>
-      <c r="P252" s="184"/>
-      <c r="Q252" s="184"/>
-      <c r="R252" s="184"/>
-      <c r="S252" s="184"/>
-      <c r="T252" s="184"/>
-      <c r="U252" s="184"/>
-      <c r="V252" s="184"/>
-      <c r="W252" s="184"/>
-      <c r="X252" s="184"/>
-      <c r="Y252" s="184"/>
-      <c r="Z252" s="184"/>
-    </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A253" s="184"/>
-      <c r="B253" s="184"/>
-      <c r="C253" s="184"/>
-      <c r="D253" s="184"/>
-      <c r="E253" s="184"/>
-      <c r="F253" s="184"/>
-      <c r="G253" s="184"/>
-      <c r="H253" s="184"/>
-      <c r="I253" s="184"/>
-      <c r="J253" s="184"/>
-      <c r="K253" s="184"/>
-      <c r="L253" s="184"/>
-      <c r="M253" s="184"/>
-      <c r="N253" s="184"/>
-      <c r="O253" s="184"/>
-      <c r="P253" s="184"/>
-      <c r="Q253" s="184"/>
-      <c r="R253" s="184"/>
-      <c r="S253" s="184"/>
-      <c r="T253" s="184"/>
-      <c r="U253" s="184"/>
-      <c r="V253" s="184"/>
-      <c r="W253" s="184"/>
-      <c r="X253" s="184"/>
-      <c r="Y253" s="184"/>
-      <c r="Z253" s="184"/>
-    </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A254" s="184"/>
-      <c r="B254" s="184"/>
-      <c r="C254" s="184"/>
-      <c r="D254" s="184"/>
-      <c r="E254" s="184"/>
-      <c r="F254" s="184"/>
-      <c r="G254" s="184"/>
-      <c r="H254" s="184"/>
-      <c r="I254" s="184"/>
-      <c r="J254" s="184"/>
-      <c r="K254" s="184"/>
-      <c r="L254" s="184"/>
-      <c r="M254" s="184"/>
-      <c r="N254" s="184"/>
-      <c r="O254" s="184"/>
-      <c r="P254" s="184"/>
-      <c r="Q254" s="184"/>
-      <c r="R254" s="184"/>
-      <c r="S254" s="184"/>
-      <c r="T254" s="184"/>
-      <c r="U254" s="184"/>
-      <c r="V254" s="184"/>
-      <c r="W254" s="184"/>
-      <c r="X254" s="184"/>
-      <c r="Y254" s="184"/>
-      <c r="Z254" s="184"/>
-    </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A255" s="184"/>
-      <c r="B255" s="184"/>
-      <c r="C255" s="184"/>
-      <c r="D255" s="184"/>
-      <c r="E255" s="184"/>
-      <c r="F255" s="184"/>
-      <c r="G255" s="184"/>
-      <c r="H255" s="184"/>
-      <c r="I255" s="184"/>
-      <c r="J255" s="184"/>
-      <c r="K255" s="184"/>
-      <c r="L255" s="184"/>
-      <c r="M255" s="184"/>
-      <c r="N255" s="184"/>
-      <c r="O255" s="184"/>
-      <c r="P255" s="184"/>
-      <c r="Q255" s="184"/>
-      <c r="R255" s="184"/>
-      <c r="S255" s="184"/>
-      <c r="T255" s="184"/>
-      <c r="U255" s="184"/>
-      <c r="V255" s="184"/>
-      <c r="W255" s="184"/>
-      <c r="X255" s="184"/>
-      <c r="Y255" s="184"/>
-      <c r="Z255" s="184"/>
-    </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A256" s="184"/>
-      <c r="B256" s="184"/>
-      <c r="C256" s="184"/>
-      <c r="D256" s="184"/>
-      <c r="E256" s="184"/>
-      <c r="F256" s="184"/>
-      <c r="G256" s="184"/>
-      <c r="H256" s="184"/>
-      <c r="I256" s="184"/>
-      <c r="J256" s="184"/>
-      <c r="K256" s="184"/>
-      <c r="L256" s="184"/>
-      <c r="M256" s="184"/>
-      <c r="N256" s="184"/>
-      <c r="O256" s="184"/>
-      <c r="P256" s="184"/>
-      <c r="Q256" s="184"/>
-      <c r="R256" s="184"/>
-      <c r="S256" s="184"/>
-      <c r="T256" s="184"/>
-      <c r="U256" s="184"/>
-      <c r="V256" s="184"/>
-      <c r="W256" s="184"/>
-      <c r="X256" s="184"/>
-      <c r="Y256" s="184"/>
-      <c r="Z256" s="184"/>
-    </row>
+    <row r="251" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="252" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="253" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="254" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="255" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="256" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -27533,6 +26914,68 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="G34:H34"/>
@@ -27549,68 +26992,6 @@
     <mergeCell ref="D42:H42"/>
     <mergeCell ref="D43:H43"/>
     <mergeCell ref="D41:H41"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -27629,15 +27010,15 @@
       <selection activeCell="C27" sqref="C27:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" customWidth="1"/>
-    <col min="5" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" customWidth="1"/>
-    <col min="8" max="8" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" customWidth="1"/>
+    <col min="5" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" customWidth="1"/>
     <col min="9" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27908,20 +27289,20 @@
       <c r="B10" s="159" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="283" t="s">
+      <c r="C10" s="274" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="285" t="s">
+      <c r="D10" s="276" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="285" t="s">
+      <c r="E10" s="276" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="286" t="s">
+      <c r="F10" s="277" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="287"/>
-      <c r="H10" s="289"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="280"/>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -27946,12 +27327,12 @@
       <c r="B11" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="284"/>
-      <c r="D11" s="284"/>
-      <c r="E11" s="284"/>
-      <c r="F11" s="284"/>
-      <c r="G11" s="288"/>
-      <c r="H11" s="290"/>
+      <c r="C11" s="275"/>
+      <c r="D11" s="275"/>
+      <c r="E11" s="275"/>
+      <c r="F11" s="275"/>
+      <c r="G11" s="279"/>
+      <c r="H11" s="281"/>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
@@ -28197,16 +27578,16 @@
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1">
       <c r="A19" s="30"/>
-      <c r="B19" s="227" t="s">
+      <c r="B19" s="226" t="s">
         <v>140</v>
       </c>
       <c r="C19" s="202"/>
-      <c r="D19" s="227" t="s">
+      <c r="D19" s="226" t="s">
         <v>141</v>
       </c>
       <c r="E19" s="201"/>
       <c r="F19" s="201"/>
-      <c r="G19" s="227" t="s">
+      <c r="G19" s="226" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="202"/>
@@ -28231,16 +27612,16 @@
     </row>
     <row r="20" spans="1:26" ht="51" customHeight="1">
       <c r="A20" s="31"/>
-      <c r="B20" s="279" t="s">
+      <c r="B20" s="282" t="s">
         <v>142</v>
       </c>
       <c r="C20" s="202"/>
-      <c r="D20" s="279" t="s">
+      <c r="D20" s="282" t="s">
         <v>143</v>
       </c>
       <c r="E20" s="201"/>
       <c r="F20" s="201"/>
-      <c r="G20" s="282"/>
+      <c r="G20" s="283"/>
       <c r="H20" s="202"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
@@ -28382,13 +27763,13 @@
       <c r="B25" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="227" t="s">
+      <c r="C25" s="226" t="s">
         <v>146</v>
       </c>
       <c r="D25" s="201"/>
       <c r="E25" s="201"/>
       <c r="F25" s="202"/>
-      <c r="G25" s="269" t="s">
+      <c r="G25" s="240" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="202"/>
@@ -28416,13 +27797,13 @@
       <c r="B26" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="275" t="s">
+      <c r="C26" s="284" t="s">
         <v>148</v>
       </c>
       <c r="D26" s="201"/>
       <c r="E26" s="201"/>
       <c r="F26" s="202"/>
-      <c r="G26" s="276"/>
+      <c r="G26" s="285"/>
       <c r="H26" s="202"/>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
@@ -28448,13 +27829,13 @@
       <c r="B27" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="279" t="s">
+      <c r="C27" s="282" t="s">
         <v>150</v>
       </c>
       <c r="D27" s="201"/>
       <c r="E27" s="201"/>
       <c r="F27" s="202"/>
-      <c r="G27" s="280"/>
+      <c r="G27" s="288"/>
       <c r="H27" s="202"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
@@ -28480,13 +27861,13 @@
       <c r="B28" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="279" t="s">
+      <c r="C28" s="282" t="s">
         <v>152</v>
       </c>
       <c r="D28" s="201"/>
       <c r="E28" s="201"/>
       <c r="F28" s="202"/>
-      <c r="G28" s="276"/>
+      <c r="G28" s="285"/>
       <c r="H28" s="202"/>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
@@ -28512,13 +27893,13 @@
       <c r="B29" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="281" t="s">
+      <c r="C29" s="289" t="s">
         <v>154</v>
       </c>
       <c r="D29" s="201"/>
       <c r="E29" s="201"/>
       <c r="F29" s="202"/>
-      <c r="G29" s="278"/>
+      <c r="G29" s="287"/>
       <c r="H29" s="202"/>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
@@ -28544,13 +27925,13 @@
       <c r="B30" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="277" t="s">
+      <c r="C30" s="286" t="s">
         <v>156</v>
       </c>
       <c r="D30" s="201"/>
       <c r="E30" s="201"/>
       <c r="F30" s="202"/>
-      <c r="G30" s="278"/>
+      <c r="G30" s="287"/>
       <c r="H30" s="202"/>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
@@ -28576,13 +27957,13 @@
       <c r="B31" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="276" t="s">
+      <c r="C31" s="285" t="s">
         <v>158</v>
       </c>
       <c r="D31" s="201"/>
       <c r="E31" s="201"/>
       <c r="F31" s="202"/>
-      <c r="G31" s="278"/>
+      <c r="G31" s="287"/>
       <c r="H31" s="202"/>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
@@ -34203,258 +33584,15 @@
       <c r="Y231" s="30"/>
       <c r="Z231" s="30"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A232" s="184"/>
-      <c r="B232" s="184"/>
-      <c r="C232" s="184"/>
-      <c r="D232" s="184"/>
-      <c r="E232" s="184"/>
-      <c r="F232" s="184"/>
-      <c r="G232" s="184"/>
-      <c r="H232" s="184"/>
-      <c r="I232" s="184"/>
-      <c r="J232" s="184"/>
-      <c r="K232" s="184"/>
-      <c r="L232" s="184"/>
-      <c r="M232" s="184"/>
-      <c r="N232" s="184"/>
-      <c r="O232" s="184"/>
-      <c r="P232" s="184"/>
-      <c r="Q232" s="184"/>
-      <c r="R232" s="184"/>
-      <c r="S232" s="184"/>
-      <c r="T232" s="184"/>
-      <c r="U232" s="184"/>
-      <c r="V232" s="184"/>
-      <c r="W232" s="184"/>
-      <c r="X232" s="184"/>
-      <c r="Y232" s="184"/>
-      <c r="Z232" s="184"/>
-    </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A233" s="184"/>
-      <c r="B233" s="184"/>
-      <c r="C233" s="184"/>
-      <c r="D233" s="184"/>
-      <c r="E233" s="184"/>
-      <c r="F233" s="184"/>
-      <c r="G233" s="184"/>
-      <c r="H233" s="184"/>
-      <c r="I233" s="184"/>
-      <c r="J233" s="184"/>
-      <c r="K233" s="184"/>
-      <c r="L233" s="184"/>
-      <c r="M233" s="184"/>
-      <c r="N233" s="184"/>
-      <c r="O233" s="184"/>
-      <c r="P233" s="184"/>
-      <c r="Q233" s="184"/>
-      <c r="R233" s="184"/>
-      <c r="S233" s="184"/>
-      <c r="T233" s="184"/>
-      <c r="U233" s="184"/>
-      <c r="V233" s="184"/>
-      <c r="W233" s="184"/>
-      <c r="X233" s="184"/>
-      <c r="Y233" s="184"/>
-      <c r="Z233" s="184"/>
-    </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A234" s="184"/>
-      <c r="B234" s="184"/>
-      <c r="C234" s="184"/>
-      <c r="D234" s="184"/>
-      <c r="E234" s="184"/>
-      <c r="F234" s="184"/>
-      <c r="G234" s="184"/>
-      <c r="H234" s="184"/>
-      <c r="I234" s="184"/>
-      <c r="J234" s="184"/>
-      <c r="K234" s="184"/>
-      <c r="L234" s="184"/>
-      <c r="M234" s="184"/>
-      <c r="N234" s="184"/>
-      <c r="O234" s="184"/>
-      <c r="P234" s="184"/>
-      <c r="Q234" s="184"/>
-      <c r="R234" s="184"/>
-      <c r="S234" s="184"/>
-      <c r="T234" s="184"/>
-      <c r="U234" s="184"/>
-      <c r="V234" s="184"/>
-      <c r="W234" s="184"/>
-      <c r="X234" s="184"/>
-      <c r="Y234" s="184"/>
-      <c r="Z234" s="184"/>
-    </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A235" s="184"/>
-      <c r="B235" s="184"/>
-      <c r="C235" s="184"/>
-      <c r="D235" s="184"/>
-      <c r="E235" s="184"/>
-      <c r="F235" s="184"/>
-      <c r="G235" s="184"/>
-      <c r="H235" s="184"/>
-      <c r="I235" s="184"/>
-      <c r="J235" s="184"/>
-      <c r="K235" s="184"/>
-      <c r="L235" s="184"/>
-      <c r="M235" s="184"/>
-      <c r="N235" s="184"/>
-      <c r="O235" s="184"/>
-      <c r="P235" s="184"/>
-      <c r="Q235" s="184"/>
-      <c r="R235" s="184"/>
-      <c r="S235" s="184"/>
-      <c r="T235" s="184"/>
-      <c r="U235" s="184"/>
-      <c r="V235" s="184"/>
-      <c r="W235" s="184"/>
-      <c r="X235" s="184"/>
-      <c r="Y235" s="184"/>
-      <c r="Z235" s="184"/>
-    </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A236" s="184"/>
-      <c r="B236" s="184"/>
-      <c r="C236" s="184"/>
-      <c r="D236" s="184"/>
-      <c r="E236" s="184"/>
-      <c r="F236" s="184"/>
-      <c r="G236" s="184"/>
-      <c r="H236" s="184"/>
-      <c r="I236" s="184"/>
-      <c r="J236" s="184"/>
-      <c r="K236" s="184"/>
-      <c r="L236" s="184"/>
-      <c r="M236" s="184"/>
-      <c r="N236" s="184"/>
-      <c r="O236" s="184"/>
-      <c r="P236" s="184"/>
-      <c r="Q236" s="184"/>
-      <c r="R236" s="184"/>
-      <c r="S236" s="184"/>
-      <c r="T236" s="184"/>
-      <c r="U236" s="184"/>
-      <c r="V236" s="184"/>
-      <c r="W236" s="184"/>
-      <c r="X236" s="184"/>
-      <c r="Y236" s="184"/>
-      <c r="Z236" s="184"/>
-    </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A237" s="184"/>
-      <c r="B237" s="184"/>
-      <c r="C237" s="184"/>
-      <c r="D237" s="184"/>
-      <c r="E237" s="184"/>
-      <c r="F237" s="184"/>
-      <c r="G237" s="184"/>
-      <c r="H237" s="184"/>
-      <c r="I237" s="184"/>
-      <c r="J237" s="184"/>
-      <c r="K237" s="184"/>
-      <c r="L237" s="184"/>
-      <c r="M237" s="184"/>
-      <c r="N237" s="184"/>
-      <c r="O237" s="184"/>
-      <c r="P237" s="184"/>
-      <c r="Q237" s="184"/>
-      <c r="R237" s="184"/>
-      <c r="S237" s="184"/>
-      <c r="T237" s="184"/>
-      <c r="U237" s="184"/>
-      <c r="V237" s="184"/>
-      <c r="W237" s="184"/>
-      <c r="X237" s="184"/>
-      <c r="Y237" s="184"/>
-      <c r="Z237" s="184"/>
-    </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A238" s="184"/>
-      <c r="B238" s="184"/>
-      <c r="C238" s="184"/>
-      <c r="D238" s="184"/>
-      <c r="E238" s="184"/>
-      <c r="F238" s="184"/>
-      <c r="G238" s="184"/>
-      <c r="H238" s="184"/>
-      <c r="I238" s="184"/>
-      <c r="J238" s="184"/>
-      <c r="K238" s="184"/>
-      <c r="L238" s="184"/>
-      <c r="M238" s="184"/>
-      <c r="N238" s="184"/>
-      <c r="O238" s="184"/>
-      <c r="P238" s="184"/>
-      <c r="Q238" s="184"/>
-      <c r="R238" s="184"/>
-      <c r="S238" s="184"/>
-      <c r="T238" s="184"/>
-      <c r="U238" s="184"/>
-      <c r="V238" s="184"/>
-      <c r="W238" s="184"/>
-      <c r="X238" s="184"/>
-      <c r="Y238" s="184"/>
-      <c r="Z238" s="184"/>
-    </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A239" s="184"/>
-      <c r="B239" s="184"/>
-      <c r="C239" s="184"/>
-      <c r="D239" s="184"/>
-      <c r="E239" s="184"/>
-      <c r="F239" s="184"/>
-      <c r="G239" s="184"/>
-      <c r="H239" s="184"/>
-      <c r="I239" s="184"/>
-      <c r="J239" s="184"/>
-      <c r="K239" s="184"/>
-      <c r="L239" s="184"/>
-      <c r="M239" s="184"/>
-      <c r="N239" s="184"/>
-      <c r="O239" s="184"/>
-      <c r="P239" s="184"/>
-      <c r="Q239" s="184"/>
-      <c r="R239" s="184"/>
-      <c r="S239" s="184"/>
-      <c r="T239" s="184"/>
-      <c r="U239" s="184"/>
-      <c r="V239" s="184"/>
-      <c r="W239" s="184"/>
-      <c r="X239" s="184"/>
-      <c r="Y239" s="184"/>
-      <c r="Z239" s="184"/>
-    </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A240" s="184"/>
-      <c r="B240" s="184"/>
-      <c r="C240" s="184"/>
-      <c r="D240" s="184"/>
-      <c r="E240" s="184"/>
-      <c r="F240" s="184"/>
-      <c r="G240" s="184"/>
-      <c r="H240" s="184"/>
-      <c r="I240" s="184"/>
-      <c r="J240" s="184"/>
-      <c r="K240" s="184"/>
-      <c r="L240" s="184"/>
-      <c r="M240" s="184"/>
-      <c r="N240" s="184"/>
-      <c r="O240" s="184"/>
-      <c r="P240" s="184"/>
-      <c r="Q240" s="184"/>
-      <c r="R240" s="184"/>
-      <c r="S240" s="184"/>
-      <c r="T240" s="184"/>
-      <c r="U240" s="184"/>
-      <c r="V240" s="184"/>
-      <c r="W240" s="184"/>
-      <c r="X240" s="184"/>
-      <c r="Y240" s="184"/>
-      <c r="Z240" s="184"/>
-    </row>
+    <row r="232" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="233" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="234" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="235" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="236" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="237" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="238" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="239" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="240" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -35217,20 +34355,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:H25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="C30:F30"/>
@@ -35243,6 +34367,20 @@
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -35262,16 +34400,16 @@
       <selection activeCell="D9" sqref="D9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
     <col min="7" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="48.83203125" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="48.77734375" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
     <col min="14" max="24" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -35421,7 +34559,7 @@
       <c r="C6" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="227" t="s">
+      <c r="D6" s="226" t="s">
         <v>163</v>
       </c>
       <c r="E6" s="201"/>
@@ -35445,7 +34583,7 @@
       <c r="W6" s="30"/>
       <c r="X6" s="30"/>
     </row>
-    <row r="7" spans="1:24" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:24" ht="40" customHeight="1">
       <c r="A7" s="108">
         <f t="shared" ref="A7:A11" si="0">ROW()-6</f>
         <v>1</v>
@@ -35454,18 +34592,18 @@
         <f>Appendix!C48</f>
         <v>21130079_Nguyễn Tấn Khoa</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="295" t="s">
+      <c r="D7" s="290" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="230"/>
-      <c r="I7" s="230"/>
-      <c r="J7" s="292"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="229"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="291"/>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
@@ -35481,7 +34619,7 @@
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
     </row>
-    <row r="8" spans="1:24" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:24" ht="40" customHeight="1">
       <c r="A8" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -35490,18 +34628,18 @@
         <f>Appendix!C49</f>
         <v>21130014_Đoàn Quốc Đăng</v>
       </c>
-      <c r="C8" s="187" t="s">
+      <c r="C8" s="186" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="296" t="s">
+      <c r="D8" s="292" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="292"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="229"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="291"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
@@ -35517,7 +34655,7 @@
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
     </row>
-    <row r="9" spans="1:24" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:24" ht="40" customHeight="1">
       <c r="A9" s="108">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -35526,18 +34664,18 @@
         <f>Appendix!C50</f>
         <v>21130091_Đoàn Nhất Linh</v>
       </c>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="186" t="s">
         <v>166</v>
       </c>
-      <c r="D9" s="296" t="s">
+      <c r="D9" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="230"/>
-      <c r="F9" s="230"/>
-      <c r="G9" s="230"/>
-      <c r="H9" s="230"/>
-      <c r="I9" s="230"/>
-      <c r="J9" s="292"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="229"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="229"/>
+      <c r="J9" s="291"/>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
@@ -35553,7 +34691,7 @@
       <c r="W9" s="30"/>
       <c r="X9" s="30"/>
     </row>
-    <row r="10" spans="1:24" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:24" ht="40" customHeight="1">
       <c r="A10" s="108">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -35562,18 +34700,18 @@
         <f>Appendix!C51</f>
         <v>21130122_Nguyễn Phương Nhã</v>
       </c>
-      <c r="C10" s="187" t="s">
+      <c r="C10" s="186" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="291" t="s">
+      <c r="D10" s="293" t="s">
         <v>169</v>
       </c>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
-      <c r="G10" s="230"/>
-      <c r="H10" s="230"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="292"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="229"/>
+      <c r="G10" s="229"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="229"/>
+      <c r="J10" s="291"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
@@ -35589,7 +34727,7 @@
       <c r="W10" s="30"/>
       <c r="X10" s="30"/>
     </row>
-    <row r="11" spans="1:24" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:24" ht="40" customHeight="1">
       <c r="A11" s="108">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -35598,18 +34736,18 @@
         <f>Appendix!C52</f>
         <v>21130126_Võ Hoàng Nhi</v>
       </c>
-      <c r="C11" s="187" t="s">
+      <c r="C11" s="186" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="291" t="s">
+      <c r="D11" s="293" t="s">
         <v>170</v>
       </c>
-      <c r="E11" s="230"/>
-      <c r="F11" s="230"/>
-      <c r="G11" s="230"/>
-      <c r="H11" s="230"/>
-      <c r="I11" s="230"/>
-      <c r="J11" s="292"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="229"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="291"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
@@ -35712,10 +34850,10 @@
       <c r="B15" s="158" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="189" t="s">
+      <c r="C15" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="227" t="s">
+      <c r="D15" s="226" t="s">
         <v>123</v>
       </c>
       <c r="E15" s="202"/>
@@ -35749,10 +34887,10 @@
       <c r="C16" s="116">
         <v>45591</v>
       </c>
-      <c r="D16" s="293">
+      <c r="D16" s="294">
         <v>45593</v>
       </c>
-      <c r="E16" s="294"/>
+      <c r="E16" s="295"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
@@ -35783,10 +34921,10 @@
       <c r="C17" s="116">
         <v>45594</v>
       </c>
-      <c r="D17" s="293">
+      <c r="D17" s="294">
         <v>45597</v>
       </c>
-      <c r="E17" s="294"/>
+      <c r="E17" s="295"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
@@ -35817,10 +34955,10 @@
       <c r="C18" s="116">
         <v>45598</v>
       </c>
-      <c r="D18" s="293">
+      <c r="D18" s="294">
         <v>45604</v>
       </c>
-      <c r="E18" s="294"/>
+      <c r="E18" s="295"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
@@ -35851,10 +34989,10 @@
       <c r="C19" s="116">
         <v>45605</v>
       </c>
-      <c r="D19" s="293">
+      <c r="D19" s="294">
         <v>45611</v>
       </c>
-      <c r="E19" s="294"/>
+      <c r="E19" s="295"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
@@ -35885,10 +35023,10 @@
       <c r="C20" s="116">
         <v>45612</v>
       </c>
-      <c r="D20" s="293">
+      <c r="D20" s="294">
         <v>45618</v>
       </c>
-      <c r="E20" s="294"/>
+      <c r="E20" s="295"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
@@ -35919,10 +35057,10 @@
       <c r="C21" s="116">
         <v>45619</v>
       </c>
-      <c r="D21" s="293">
+      <c r="D21" s="294">
         <v>45625</v>
       </c>
-      <c r="E21" s="294"/>
+      <c r="E21" s="295"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
@@ -35977,7 +35115,7 @@
       <c r="C23" s="162" t="s">
         <v>177</v>
       </c>
-      <c r="D23" s="189" t="s">
+      <c r="D23" s="188" t="s">
         <v>178</v>
       </c>
       <c r="E23" s="163"/>
@@ -41487,214 +40625,14 @@
       <c r="W232" s="30"/>
       <c r="X232" s="30"/>
     </row>
-    <row r="233" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A233" s="184"/>
-      <c r="B233" s="184"/>
-      <c r="C233" s="184"/>
-      <c r="D233" s="184"/>
-      <c r="E233" s="184"/>
-      <c r="F233" s="184"/>
-      <c r="G233" s="184"/>
-      <c r="H233" s="184"/>
-      <c r="I233" s="184"/>
-      <c r="J233" s="184"/>
-      <c r="K233" s="184"/>
-      <c r="L233" s="184"/>
-      <c r="M233" s="184"/>
-      <c r="N233" s="184"/>
-      <c r="O233" s="184"/>
-      <c r="P233" s="184"/>
-      <c r="Q233" s="184"/>
-      <c r="R233" s="184"/>
-      <c r="S233" s="184"/>
-      <c r="T233" s="184"/>
-      <c r="U233" s="184"/>
-      <c r="V233" s="184"/>
-      <c r="W233" s="184"/>
-      <c r="X233" s="184"/>
-    </row>
-    <row r="234" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A234" s="184"/>
-      <c r="B234" s="184"/>
-      <c r="C234" s="184"/>
-      <c r="D234" s="184"/>
-      <c r="E234" s="184"/>
-      <c r="F234" s="184"/>
-      <c r="G234" s="184"/>
-      <c r="H234" s="184"/>
-      <c r="I234" s="184"/>
-      <c r="J234" s="184"/>
-      <c r="K234" s="184"/>
-      <c r="L234" s="184"/>
-      <c r="M234" s="184"/>
-      <c r="N234" s="184"/>
-      <c r="O234" s="184"/>
-      <c r="P234" s="184"/>
-      <c r="Q234" s="184"/>
-      <c r="R234" s="184"/>
-      <c r="S234" s="184"/>
-      <c r="T234" s="184"/>
-      <c r="U234" s="184"/>
-      <c r="V234" s="184"/>
-      <c r="W234" s="184"/>
-      <c r="X234" s="184"/>
-    </row>
-    <row r="235" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A235" s="184"/>
-      <c r="B235" s="184"/>
-      <c r="C235" s="184"/>
-      <c r="D235" s="184"/>
-      <c r="E235" s="184"/>
-      <c r="F235" s="184"/>
-      <c r="G235" s="184"/>
-      <c r="H235" s="184"/>
-      <c r="I235" s="184"/>
-      <c r="J235" s="184"/>
-      <c r="K235" s="184"/>
-      <c r="L235" s="184"/>
-      <c r="M235" s="184"/>
-      <c r="N235" s="184"/>
-      <c r="O235" s="184"/>
-      <c r="P235" s="184"/>
-      <c r="Q235" s="184"/>
-      <c r="R235" s="184"/>
-      <c r="S235" s="184"/>
-      <c r="T235" s="184"/>
-      <c r="U235" s="184"/>
-      <c r="V235" s="184"/>
-      <c r="W235" s="184"/>
-      <c r="X235" s="184"/>
-    </row>
-    <row r="236" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A236" s="184"/>
-      <c r="B236" s="184"/>
-      <c r="C236" s="184"/>
-      <c r="D236" s="184"/>
-      <c r="E236" s="184"/>
-      <c r="F236" s="184"/>
-      <c r="G236" s="184"/>
-      <c r="H236" s="184"/>
-      <c r="I236" s="184"/>
-      <c r="J236" s="184"/>
-      <c r="K236" s="184"/>
-      <c r="L236" s="184"/>
-      <c r="M236" s="184"/>
-      <c r="N236" s="184"/>
-      <c r="O236" s="184"/>
-      <c r="P236" s="184"/>
-      <c r="Q236" s="184"/>
-      <c r="R236" s="184"/>
-      <c r="S236" s="184"/>
-      <c r="T236" s="184"/>
-      <c r="U236" s="184"/>
-      <c r="V236" s="184"/>
-      <c r="W236" s="184"/>
-      <c r="X236" s="184"/>
-    </row>
-    <row r="237" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A237" s="184"/>
-      <c r="B237" s="184"/>
-      <c r="C237" s="184"/>
-      <c r="D237" s="184"/>
-      <c r="E237" s="184"/>
-      <c r="F237" s="184"/>
-      <c r="G237" s="184"/>
-      <c r="H237" s="184"/>
-      <c r="I237" s="184"/>
-      <c r="J237" s="184"/>
-      <c r="K237" s="184"/>
-      <c r="L237" s="184"/>
-      <c r="M237" s="184"/>
-      <c r="N237" s="184"/>
-      <c r="O237" s="184"/>
-      <c r="P237" s="184"/>
-      <c r="Q237" s="184"/>
-      <c r="R237" s="184"/>
-      <c r="S237" s="184"/>
-      <c r="T237" s="184"/>
-      <c r="U237" s="184"/>
-      <c r="V237" s="184"/>
-      <c r="W237" s="184"/>
-      <c r="X237" s="184"/>
-    </row>
-    <row r="238" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A238" s="184"/>
-      <c r="B238" s="184"/>
-      <c r="C238" s="184"/>
-      <c r="D238" s="184"/>
-      <c r="E238" s="184"/>
-      <c r="F238" s="184"/>
-      <c r="G238" s="184"/>
-      <c r="H238" s="184"/>
-      <c r="I238" s="184"/>
-      <c r="J238" s="184"/>
-      <c r="K238" s="184"/>
-      <c r="L238" s="184"/>
-      <c r="M238" s="184"/>
-      <c r="N238" s="184"/>
-      <c r="O238" s="184"/>
-      <c r="P238" s="184"/>
-      <c r="Q238" s="184"/>
-      <c r="R238" s="184"/>
-      <c r="S238" s="184"/>
-      <c r="T238" s="184"/>
-      <c r="U238" s="184"/>
-      <c r="V238" s="184"/>
-      <c r="W238" s="184"/>
-      <c r="X238" s="184"/>
-    </row>
-    <row r="239" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A239" s="184"/>
-      <c r="B239" s="184"/>
-      <c r="C239" s="184"/>
-      <c r="D239" s="184"/>
-      <c r="E239" s="184"/>
-      <c r="F239" s="184"/>
-      <c r="G239" s="184"/>
-      <c r="H239" s="184"/>
-      <c r="I239" s="184"/>
-      <c r="J239" s="184"/>
-      <c r="K239" s="184"/>
-      <c r="L239" s="184"/>
-      <c r="M239" s="184"/>
-      <c r="N239" s="184"/>
-      <c r="O239" s="184"/>
-      <c r="P239" s="184"/>
-      <c r="Q239" s="184"/>
-      <c r="R239" s="184"/>
-      <c r="S239" s="184"/>
-      <c r="T239" s="184"/>
-      <c r="U239" s="184"/>
-      <c r="V239" s="184"/>
-      <c r="W239" s="184"/>
-      <c r="X239" s="184"/>
-    </row>
-    <row r="240" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A240" s="184"/>
-      <c r="B240" s="184"/>
-      <c r="C240" s="184"/>
-      <c r="D240" s="184"/>
-      <c r="E240" s="184"/>
-      <c r="F240" s="184"/>
-      <c r="G240" s="184"/>
-      <c r="H240" s="184"/>
-      <c r="I240" s="184"/>
-      <c r="J240" s="184"/>
-      <c r="K240" s="184"/>
-      <c r="L240" s="184"/>
-      <c r="M240" s="184"/>
-      <c r="N240" s="184"/>
-      <c r="O240" s="184"/>
-      <c r="P240" s="184"/>
-      <c r="Q240" s="184"/>
-      <c r="R240" s="184"/>
-      <c r="S240" s="184"/>
-      <c r="T240" s="184"/>
-      <c r="U240" s="184"/>
-      <c r="V240" s="184"/>
-      <c r="W240" s="184"/>
-      <c r="X240" s="184"/>
-    </row>
+    <row r="233" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="234" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="235" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="236" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="237" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="238" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="239" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="240" spans="1:24" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -42452,11 +41390,6 @@
     <row r="995" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
@@ -42465,6 +41398,11 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B32" location="Detail Schedule!A1" display="Liên kết" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
@@ -42488,77 +41426,77 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="41.83203125" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="41.77734375" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" customWidth="1"/>
     <col min="4" max="39" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="12.75" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="251" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="298" t="s">
+      <c r="B1" s="297" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="300" t="s">
+      <c r="C1" s="299" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="301" t="s">
+      <c r="D1" s="300" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="302"/>
-      <c r="J1" s="303" t="s">
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="301"/>
+      <c r="J1" s="302" t="s">
         <v>182</v>
       </c>
-      <c r="K1" s="303"/>
-      <c r="L1" s="303"/>
-      <c r="M1" s="303"/>
-      <c r="N1" s="303"/>
-      <c r="O1" s="303"/>
-      <c r="P1" s="303"/>
-      <c r="Q1" s="303"/>
-      <c r="R1" s="303"/>
-      <c r="S1" s="303"/>
-      <c r="T1" s="303"/>
-      <c r="U1" s="303"/>
-      <c r="V1" s="303"/>
-      <c r="W1" s="303"/>
-      <c r="X1" s="303"/>
-      <c r="Y1" s="303"/>
-      <c r="Z1" s="303"/>
-      <c r="AA1" s="303"/>
-      <c r="AB1" s="303"/>
-      <c r="AC1" s="303"/>
-      <c r="AD1" s="303"/>
-      <c r="AE1" s="303"/>
-      <c r="AF1" s="303"/>
-      <c r="AG1" s="303"/>
-      <c r="AH1" s="303"/>
-      <c r="AI1" s="303"/>
-      <c r="AJ1" s="303"/>
-      <c r="AK1" s="303"/>
-      <c r="AL1" s="303"/>
-      <c r="AM1" s="303"/>
+      <c r="K1" s="302"/>
+      <c r="L1" s="302"/>
+      <c r="M1" s="302"/>
+      <c r="N1" s="302"/>
+      <c r="O1" s="302"/>
+      <c r="P1" s="302"/>
+      <c r="Q1" s="302"/>
+      <c r="R1" s="302"/>
+      <c r="S1" s="302"/>
+      <c r="T1" s="302"/>
+      <c r="U1" s="302"/>
+      <c r="V1" s="302"/>
+      <c r="W1" s="302"/>
+      <c r="X1" s="302"/>
+      <c r="Y1" s="302"/>
+      <c r="Z1" s="302"/>
+      <c r="AA1" s="302"/>
+      <c r="AB1" s="302"/>
+      <c r="AC1" s="302"/>
+      <c r="AD1" s="302"/>
+      <c r="AE1" s="302"/>
+      <c r="AF1" s="302"/>
+      <c r="AG1" s="302"/>
+      <c r="AH1" s="302"/>
+      <c r="AI1" s="302"/>
+      <c r="AJ1" s="302"/>
+      <c r="AK1" s="302"/>
+      <c r="AL1" s="302"/>
+      <c r="AM1" s="302"/>
       <c r="AN1" s="181"/>
       <c r="AO1" s="30"/>
       <c r="AP1" s="30"/>
     </row>
     <row r="2" spans="1:42" ht="12" customHeight="1">
-      <c r="A2" s="297"/>
-      <c r="B2" s="299"/>
-      <c r="C2" s="292"/>
+      <c r="A2" s="296"/>
+      <c r="B2" s="298"/>
+      <c r="C2" s="291"/>
       <c r="D2" s="30">
         <v>26</v>
       </c>
@@ -42667,7 +41605,6 @@
       <c r="AM2" s="182">
         <v>30</v>
       </c>
-      <c r="AN2" s="184"/>
       <c r="AO2" s="30"/>
       <c r="AP2" s="30"/>
     </row>
@@ -42704,22 +41641,6 @@
       <c r="X3" s="30"/>
       <c r="Y3" s="30"/>
       <c r="Z3" s="30"/>
-      <c r="AA3" s="184"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="184"/>
-      <c r="AD3" s="184"/>
-      <c r="AE3" s="184"/>
-      <c r="AF3" s="184"/>
-      <c r="AG3" s="184"/>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="184"/>
-      <c r="AJ3" s="184"/>
-      <c r="AK3" s="184"/>
-      <c r="AL3" s="184"/>
-      <c r="AM3" s="184"/>
-      <c r="AN3" s="184"/>
-      <c r="AO3" s="184"/>
-      <c r="AP3" s="184"/>
     </row>
     <row r="4" spans="1:42" ht="12.75" customHeight="1">
       <c r="A4" s="129">
@@ -42752,22 +41673,6 @@
       <c r="X4" s="30"/>
       <c r="Y4" s="30"/>
       <c r="Z4" s="30"/>
-      <c r="AA4" s="184"/>
-      <c r="AB4" s="184"/>
-      <c r="AC4" s="184"/>
-      <c r="AD4" s="184"/>
-      <c r="AE4" s="184"/>
-      <c r="AF4" s="184"/>
-      <c r="AG4" s="184"/>
-      <c r="AH4" s="184"/>
-      <c r="AI4" s="184"/>
-      <c r="AJ4" s="184"/>
-      <c r="AK4" s="184"/>
-      <c r="AL4" s="184"/>
-      <c r="AM4" s="184"/>
-      <c r="AN4" s="184"/>
-      <c r="AO4" s="184"/>
-      <c r="AP4" s="184"/>
     </row>
     <row r="5" spans="1:42" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A5" s="176">
@@ -42803,22 +41708,6 @@
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
       <c r="Z5" s="30"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="184"/>
-      <c r="AC5" s="184"/>
-      <c r="AD5" s="184"/>
-      <c r="AE5" s="184"/>
-      <c r="AF5" s="184"/>
-      <c r="AG5" s="184"/>
-      <c r="AH5" s="184"/>
-      <c r="AI5" s="184"/>
-      <c r="AJ5" s="184"/>
-      <c r="AK5" s="184"/>
-      <c r="AL5" s="184"/>
-      <c r="AM5" s="184"/>
-      <c r="AN5" s="184"/>
-      <c r="AO5" s="184"/>
-      <c r="AP5" s="184"/>
     </row>
     <row r="6" spans="1:42" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A6" s="176">
@@ -42854,22 +41743,6 @@
       <c r="X6" s="30"/>
       <c r="Y6" s="30"/>
       <c r="Z6" s="30"/>
-      <c r="AA6" s="184"/>
-      <c r="AB6" s="184"/>
-      <c r="AC6" s="184"/>
-      <c r="AD6" s="184"/>
-      <c r="AE6" s="184"/>
-      <c r="AF6" s="184"/>
-      <c r="AG6" s="184"/>
-      <c r="AH6" s="184"/>
-      <c r="AI6" s="184"/>
-      <c r="AJ6" s="184"/>
-      <c r="AK6" s="184"/>
-      <c r="AL6" s="184"/>
-      <c r="AM6" s="184"/>
-      <c r="AN6" s="184"/>
-      <c r="AO6" s="184"/>
-      <c r="AP6" s="184"/>
     </row>
     <row r="7" spans="1:42" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A7" s="176">
@@ -42905,22 +41778,6 @@
       <c r="X7" s="30"/>
       <c r="Y7" s="30"/>
       <c r="Z7" s="30"/>
-      <c r="AA7" s="184"/>
-      <c r="AB7" s="184"/>
-      <c r="AC7" s="184"/>
-      <c r="AD7" s="184"/>
-      <c r="AE7" s="184"/>
-      <c r="AF7" s="184"/>
-      <c r="AG7" s="184"/>
-      <c r="AH7" s="184"/>
-      <c r="AI7" s="184"/>
-      <c r="AJ7" s="184"/>
-      <c r="AK7" s="184"/>
-      <c r="AL7" s="184"/>
-      <c r="AM7" s="184"/>
-      <c r="AN7" s="184"/>
-      <c r="AO7" s="184"/>
-      <c r="AP7" s="184"/>
     </row>
     <row r="8" spans="1:42" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A8" s="176">
@@ -42956,22 +41813,6 @@
       <c r="X8" s="30"/>
       <c r="Y8" s="30"/>
       <c r="Z8" s="30"/>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="184"/>
-      <c r="AC8" s="184"/>
-      <c r="AD8" s="184"/>
-      <c r="AE8" s="184"/>
-      <c r="AF8" s="184"/>
-      <c r="AG8" s="184"/>
-      <c r="AH8" s="184"/>
-      <c r="AI8" s="184"/>
-      <c r="AJ8" s="184"/>
-      <c r="AK8" s="184"/>
-      <c r="AL8" s="184"/>
-      <c r="AM8" s="184"/>
-      <c r="AN8" s="184"/>
-      <c r="AO8" s="184"/>
-      <c r="AP8" s="184"/>
     </row>
     <row r="9" spans="1:42" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A9" s="176">
@@ -43007,22 +41848,6 @@
       <c r="X9" s="30"/>
       <c r="Y9" s="30"/>
       <c r="Z9" s="30"/>
-      <c r="AA9" s="184"/>
-      <c r="AB9" s="184"/>
-      <c r="AC9" s="184"/>
-      <c r="AD9" s="184"/>
-      <c r="AE9" s="184"/>
-      <c r="AF9" s="184"/>
-      <c r="AG9" s="184"/>
-      <c r="AH9" s="184"/>
-      <c r="AI9" s="184"/>
-      <c r="AJ9" s="184"/>
-      <c r="AK9" s="184"/>
-      <c r="AL9" s="184"/>
-      <c r="AM9" s="184"/>
-      <c r="AN9" s="184"/>
-      <c r="AO9" s="184"/>
-      <c r="AP9" s="184"/>
     </row>
     <row r="10" spans="1:42" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A10" s="176">
@@ -43051,28 +41876,6 @@
       <c r="R10" s="30"/>
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
-      <c r="U10" s="184"/>
-      <c r="V10" s="184"/>
-      <c r="W10" s="184"/>
-      <c r="X10" s="184"/>
-      <c r="Y10" s="184"/>
-      <c r="Z10" s="184"/>
-      <c r="AA10" s="184"/>
-      <c r="AB10" s="184"/>
-      <c r="AC10" s="184"/>
-      <c r="AD10" s="184"/>
-      <c r="AE10" s="184"/>
-      <c r="AF10" s="184"/>
-      <c r="AG10" s="184"/>
-      <c r="AH10" s="184"/>
-      <c r="AI10" s="184"/>
-      <c r="AJ10" s="184"/>
-      <c r="AK10" s="184"/>
-      <c r="AL10" s="184"/>
-      <c r="AM10" s="184"/>
-      <c r="AN10" s="184"/>
-      <c r="AO10" s="184"/>
-      <c r="AP10" s="184"/>
     </row>
     <row r="11" spans="1:42" ht="12.75" customHeight="1">
       <c r="A11" s="129">
@@ -43099,28 +41902,6 @@
       <c r="R11" s="30"/>
       <c r="S11" s="30"/>
       <c r="T11" s="30"/>
-      <c r="U11" s="184"/>
-      <c r="V11" s="184"/>
-      <c r="W11" s="184"/>
-      <c r="X11" s="184"/>
-      <c r="Y11" s="184"/>
-      <c r="Z11" s="184"/>
-      <c r="AA11" s="184"/>
-      <c r="AB11" s="184"/>
-      <c r="AC11" s="184"/>
-      <c r="AD11" s="184"/>
-      <c r="AE11" s="184"/>
-      <c r="AF11" s="184"/>
-      <c r="AG11" s="184"/>
-      <c r="AH11" s="184"/>
-      <c r="AI11" s="184"/>
-      <c r="AJ11" s="184"/>
-      <c r="AK11" s="184"/>
-      <c r="AL11" s="184"/>
-      <c r="AM11" s="184"/>
-      <c r="AN11" s="184"/>
-      <c r="AO11" s="184"/>
-      <c r="AP11" s="184"/>
     </row>
     <row r="12" spans="1:42" ht="12.75" customHeight="1">
       <c r="A12" s="176">
@@ -43148,30 +41929,6 @@
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
       <c r="R12" s="30"/>
-      <c r="S12" s="184"/>
-      <c r="T12" s="184"/>
-      <c r="U12" s="184"/>
-      <c r="V12" s="184"/>
-      <c r="W12" s="184"/>
-      <c r="X12" s="184"/>
-      <c r="Y12" s="184"/>
-      <c r="Z12" s="184"/>
-      <c r="AA12" s="184"/>
-      <c r="AB12" s="184"/>
-      <c r="AC12" s="184"/>
-      <c r="AD12" s="184"/>
-      <c r="AE12" s="184"/>
-      <c r="AF12" s="184"/>
-      <c r="AG12" s="184"/>
-      <c r="AH12" s="184"/>
-      <c r="AI12" s="184"/>
-      <c r="AJ12" s="184"/>
-      <c r="AK12" s="184"/>
-      <c r="AL12" s="184"/>
-      <c r="AM12" s="184"/>
-      <c r="AN12" s="184"/>
-      <c r="AO12" s="184"/>
-      <c r="AP12" s="184"/>
     </row>
     <row r="13" spans="1:42" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A13" s="176">
@@ -43199,30 +41956,6 @@
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
       <c r="R13" s="30"/>
-      <c r="S13" s="184"/>
-      <c r="T13" s="184"/>
-      <c r="U13" s="184"/>
-      <c r="V13" s="184"/>
-      <c r="W13" s="184"/>
-      <c r="X13" s="184"/>
-      <c r="Y13" s="184"/>
-      <c r="Z13" s="184"/>
-      <c r="AA13" s="184"/>
-      <c r="AB13" s="184"/>
-      <c r="AC13" s="184"/>
-      <c r="AD13" s="184"/>
-      <c r="AE13" s="184"/>
-      <c r="AF13" s="184"/>
-      <c r="AG13" s="184"/>
-      <c r="AH13" s="184"/>
-      <c r="AI13" s="184"/>
-      <c r="AJ13" s="184"/>
-      <c r="AK13" s="184"/>
-      <c r="AL13" s="184"/>
-      <c r="AM13" s="184"/>
-      <c r="AN13" s="184"/>
-      <c r="AO13" s="184"/>
-      <c r="AP13" s="184"/>
     </row>
     <row r="14" spans="1:42" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A14" s="176">
@@ -43250,30 +41983,6 @@
       <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
-      <c r="S14" s="184"/>
-      <c r="T14" s="184"/>
-      <c r="U14" s="184"/>
-      <c r="V14" s="184"/>
-      <c r="W14" s="184"/>
-      <c r="X14" s="184"/>
-      <c r="Y14" s="184"/>
-      <c r="Z14" s="184"/>
-      <c r="AA14" s="184"/>
-      <c r="AB14" s="184"/>
-      <c r="AC14" s="184"/>
-      <c r="AD14" s="184"/>
-      <c r="AE14" s="184"/>
-      <c r="AF14" s="184"/>
-      <c r="AG14" s="184"/>
-      <c r="AH14" s="184"/>
-      <c r="AI14" s="184"/>
-      <c r="AJ14" s="184"/>
-      <c r="AK14" s="184"/>
-      <c r="AL14" s="184"/>
-      <c r="AM14" s="184"/>
-      <c r="AN14" s="184"/>
-      <c r="AO14" s="184"/>
-      <c r="AP14" s="184"/>
     </row>
     <row r="15" spans="1:42" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A15" s="176">
@@ -43301,30 +42010,6 @@
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
-      <c r="S15" s="184"/>
-      <c r="T15" s="184"/>
-      <c r="U15" s="184"/>
-      <c r="V15" s="184"/>
-      <c r="W15" s="184"/>
-      <c r="X15" s="184"/>
-      <c r="Y15" s="184"/>
-      <c r="Z15" s="184"/>
-      <c r="AA15" s="184"/>
-      <c r="AB15" s="184"/>
-      <c r="AC15" s="184"/>
-      <c r="AD15" s="184"/>
-      <c r="AE15" s="184"/>
-      <c r="AF15" s="184"/>
-      <c r="AG15" s="184"/>
-      <c r="AH15" s="184"/>
-      <c r="AI15" s="184"/>
-      <c r="AJ15" s="184"/>
-      <c r="AK15" s="184"/>
-      <c r="AL15" s="184"/>
-      <c r="AM15" s="184"/>
-      <c r="AN15" s="184"/>
-      <c r="AO15" s="184"/>
-      <c r="AP15" s="184"/>
     </row>
     <row r="16" spans="1:42" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A16" s="176">
@@ -43358,24 +42043,6 @@
       <c r="V16" s="30"/>
       <c r="W16" s="30"/>
       <c r="X16" s="30"/>
-      <c r="Y16" s="184"/>
-      <c r="Z16" s="184"/>
-      <c r="AA16" s="184"/>
-      <c r="AB16" s="184"/>
-      <c r="AC16" s="184"/>
-      <c r="AD16" s="184"/>
-      <c r="AE16" s="184"/>
-      <c r="AF16" s="184"/>
-      <c r="AG16" s="184"/>
-      <c r="AH16" s="184"/>
-      <c r="AI16" s="184"/>
-      <c r="AJ16" s="184"/>
-      <c r="AK16" s="184"/>
-      <c r="AL16" s="184"/>
-      <c r="AM16" s="184"/>
-      <c r="AN16" s="184"/>
-      <c r="AO16" s="184"/>
-      <c r="AP16" s="184"/>
     </row>
     <row r="17" spans="1:38" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A17" s="176">
@@ -43408,20 +42075,6 @@
       <c r="V17" s="30"/>
       <c r="W17" s="30"/>
       <c r="X17" s="30"/>
-      <c r="Y17" s="184"/>
-      <c r="Z17" s="184"/>
-      <c r="AA17" s="184"/>
-      <c r="AB17" s="184"/>
-      <c r="AC17" s="184"/>
-      <c r="AD17" s="184"/>
-      <c r="AE17" s="184"/>
-      <c r="AF17" s="184"/>
-      <c r="AG17" s="184"/>
-      <c r="AH17" s="184"/>
-      <c r="AI17" s="184"/>
-      <c r="AJ17" s="184"/>
-      <c r="AK17" s="184"/>
-      <c r="AL17" s="184"/>
     </row>
     <row r="18" spans="1:38" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A18" s="129">
@@ -43452,20 +42105,6 @@
       <c r="V18" s="177"/>
       <c r="W18" s="177"/>
       <c r="X18" s="177"/>
-      <c r="Y18" s="184"/>
-      <c r="Z18" s="184"/>
-      <c r="AA18" s="184"/>
-      <c r="AB18" s="184"/>
-      <c r="AC18" s="184"/>
-      <c r="AD18" s="184"/>
-      <c r="AE18" s="184"/>
-      <c r="AF18" s="184"/>
-      <c r="AG18" s="184"/>
-      <c r="AH18" s="184"/>
-      <c r="AI18" s="184"/>
-      <c r="AJ18" s="184"/>
-      <c r="AK18" s="184"/>
-      <c r="AL18" s="184"/>
     </row>
     <row r="19" spans="1:38" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A19" s="176">
@@ -43499,67 +42138,23 @@
       <c r="V19" s="178"/>
       <c r="W19" s="30"/>
       <c r="X19" s="30"/>
-      <c r="Y19" s="184"/>
-      <c r="Z19" s="184"/>
-      <c r="AA19" s="184"/>
-      <c r="AB19" s="184"/>
-      <c r="AC19" s="184"/>
-      <c r="AD19" s="184"/>
-      <c r="AE19" s="184"/>
-      <c r="AF19" s="184"/>
-      <c r="AG19" s="184"/>
-      <c r="AH19" s="184"/>
-      <c r="AI19" s="184"/>
-      <c r="AJ19" s="184"/>
-      <c r="AK19" s="184"/>
-      <c r="AL19" s="184"/>
     </row>
     <row r="20" spans="1:38" ht="15.75" customHeight="1">
       <c r="A20" s="176">
         <v>4.2</v>
       </c>
       <c r="B20" s="132" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C20" s="125" t="str">
         <f>Appendix!$C$50</f>
         <v>21130091_Đoàn Nhất Linh</v>
       </c>
-      <c r="D20" s="184"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="184"/>
-      <c r="K20" s="184"/>
-      <c r="L20" s="184"/>
-      <c r="M20" s="184"/>
-      <c r="N20" s="184"/>
-      <c r="O20" s="184"/>
-      <c r="P20" s="184"/>
-      <c r="Q20" s="184"/>
       <c r="R20" s="180"/>
       <c r="S20" s="180"/>
       <c r="T20" s="180"/>
       <c r="U20" s="180"/>
       <c r="V20" s="180"/>
-      <c r="W20" s="184"/>
-      <c r="X20" s="184"/>
-      <c r="Y20" s="184"/>
-      <c r="Z20" s="184"/>
-      <c r="AA20" s="184"/>
-      <c r="AB20" s="184"/>
-      <c r="AC20" s="184"/>
-      <c r="AD20" s="184"/>
-      <c r="AE20" s="184"/>
-      <c r="AF20" s="184"/>
-      <c r="AG20" s="184"/>
-      <c r="AH20" s="184"/>
-      <c r="AI20" s="184"/>
-      <c r="AJ20" s="184"/>
-      <c r="AK20" s="184"/>
-      <c r="AL20" s="184"/>
     </row>
     <row r="21" spans="1:38" ht="15.75" customHeight="1">
       <c r="A21" s="176">
@@ -43572,41 +42167,11 @@
         <f>Appendix!$C$49</f>
         <v>21130014_Đoàn Quốc Đăng</v>
       </c>
-      <c r="D21" s="184"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="184"/>
-      <c r="K21" s="184"/>
-      <c r="L21" s="184"/>
-      <c r="M21" s="184"/>
-      <c r="N21" s="184"/>
-      <c r="O21" s="184"/>
-      <c r="P21" s="184"/>
-      <c r="Q21" s="184"/>
       <c r="R21" s="180"/>
       <c r="S21" s="180"/>
       <c r="T21" s="180"/>
       <c r="U21" s="180"/>
       <c r="V21" s="180"/>
-      <c r="W21" s="184"/>
-      <c r="X21" s="184"/>
-      <c r="Y21" s="184"/>
-      <c r="Z21" s="184"/>
-      <c r="AA21" s="184"/>
-      <c r="AB21" s="184"/>
-      <c r="AC21" s="184"/>
-      <c r="AD21" s="184"/>
-      <c r="AE21" s="184"/>
-      <c r="AF21" s="184"/>
-      <c r="AG21" s="184"/>
-      <c r="AH21" s="184"/>
-      <c r="AI21" s="184"/>
-      <c r="AJ21" s="184"/>
-      <c r="AK21" s="184"/>
-      <c r="AL21" s="184"/>
     </row>
     <row r="22" spans="1:38" ht="15.75" customHeight="1">
       <c r="A22" s="176">
@@ -43619,41 +42184,11 @@
         <f>Appendix!$C$51</f>
         <v>21130122_Nguyễn Phương Nhã</v>
       </c>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="184"/>
-      <c r="K22" s="184"/>
-      <c r="L22" s="184"/>
-      <c r="M22" s="184"/>
-      <c r="N22" s="184"/>
-      <c r="O22" s="184"/>
-      <c r="P22" s="184"/>
-      <c r="Q22" s="184"/>
       <c r="R22" s="180"/>
       <c r="S22" s="180"/>
       <c r="T22" s="180"/>
       <c r="U22" s="180"/>
       <c r="V22" s="180"/>
-      <c r="W22" s="184"/>
-      <c r="X22" s="184"/>
-      <c r="Y22" s="184"/>
-      <c r="Z22" s="184"/>
-      <c r="AA22" s="184"/>
-      <c r="AB22" s="184"/>
-      <c r="AC22" s="184"/>
-      <c r="AD22" s="184"/>
-      <c r="AE22" s="184"/>
-      <c r="AF22" s="184"/>
-      <c r="AG22" s="184"/>
-      <c r="AH22" s="184"/>
-      <c r="AI22" s="184"/>
-      <c r="AJ22" s="184"/>
-      <c r="AK22" s="184"/>
-      <c r="AL22" s="184"/>
     </row>
     <row r="23" spans="1:38" ht="15.75" customHeight="1">
       <c r="A23" s="176">
@@ -43666,41 +42201,11 @@
         <f>Appendix!$C$52</f>
         <v>21130126_Võ Hoàng Nhi</v>
       </c>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="184"/>
-      <c r="K23" s="184"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="184"/>
-      <c r="N23" s="184"/>
-      <c r="O23" s="184"/>
-      <c r="P23" s="184"/>
-      <c r="Q23" s="184"/>
       <c r="R23" s="180"/>
       <c r="S23" s="180"/>
       <c r="T23" s="180"/>
       <c r="U23" s="180"/>
       <c r="V23" s="180"/>
-      <c r="W23" s="184"/>
-      <c r="X23" s="184"/>
-      <c r="Y23" s="184"/>
-      <c r="Z23" s="184"/>
-      <c r="AA23" s="184"/>
-      <c r="AB23" s="184"/>
-      <c r="AC23" s="184"/>
-      <c r="AD23" s="184"/>
-      <c r="AE23" s="184"/>
-      <c r="AF23" s="184"/>
-      <c r="AG23" s="184"/>
-      <c r="AH23" s="184"/>
-      <c r="AI23" s="184"/>
-      <c r="AJ23" s="184"/>
-      <c r="AK23" s="184"/>
-      <c r="AL23" s="184"/>
     </row>
     <row r="24" spans="1:38" ht="15.75" customHeight="1">
       <c r="A24" s="176">
@@ -43712,41 +42217,8 @@
       <c r="C24" s="125" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="184"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="184"/>
-      <c r="K24" s="184"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="184"/>
-      <c r="N24" s="184"/>
-      <c r="O24" s="184"/>
-      <c r="P24" s="184"/>
-      <c r="Q24" s="184"/>
-      <c r="R24" s="184"/>
-      <c r="S24" s="184"/>
-      <c r="T24" s="184"/>
-      <c r="U24" s="184"/>
-      <c r="V24" s="184"/>
       <c r="W24" s="180"/>
       <c r="X24" s="180"/>
-      <c r="Y24" s="184"/>
-      <c r="Z24" s="184"/>
-      <c r="AA24" s="184"/>
-      <c r="AB24" s="184"/>
-      <c r="AC24" s="184"/>
-      <c r="AD24" s="184"/>
-      <c r="AE24" s="184"/>
-      <c r="AF24" s="184"/>
-      <c r="AG24" s="184"/>
-      <c r="AH24" s="184"/>
-      <c r="AI24" s="184"/>
-      <c r="AJ24" s="184"/>
-      <c r="AK24" s="184"/>
-      <c r="AL24" s="184"/>
     </row>
     <row r="25" spans="1:38" ht="15.75" customHeight="1">
       <c r="A25" s="135">
@@ -43758,27 +42230,6 @@
       <c r="C25" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="184"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="184"/>
-      <c r="K25" s="184"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="184"/>
-      <c r="N25" s="184"/>
-      <c r="O25" s="184"/>
-      <c r="P25" s="184"/>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="184"/>
-      <c r="S25" s="184"/>
-      <c r="T25" s="184"/>
-      <c r="U25" s="184"/>
-      <c r="V25" s="184"/>
-      <c r="W25" s="184"/>
-      <c r="X25" s="184"/>
       <c r="Y25" s="179"/>
       <c r="Z25" s="179"/>
       <c r="AA25" s="179"/>
@@ -43786,13 +42237,6 @@
       <c r="AC25" s="179"/>
       <c r="AD25" s="179"/>
       <c r="AE25" s="179"/>
-      <c r="AF25" s="184"/>
-      <c r="AG25" s="184"/>
-      <c r="AH25" s="184"/>
-      <c r="AI25" s="184"/>
-      <c r="AJ25" s="184"/>
-      <c r="AK25" s="184"/>
-      <c r="AL25" s="184"/>
     </row>
     <row r="26" spans="1:38" ht="15.75" customHeight="1">
       <c r="A26" s="136">
@@ -43804,34 +42248,6 @@
       <c r="C26" s="137" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="184"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="184"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="184"/>
-      <c r="K26" s="184"/>
-      <c r="L26" s="184"/>
-      <c r="M26" s="184"/>
-      <c r="N26" s="184"/>
-      <c r="O26" s="184"/>
-      <c r="P26" s="184"/>
-      <c r="Q26" s="184"/>
-      <c r="R26" s="184"/>
-      <c r="S26" s="184"/>
-      <c r="T26" s="184"/>
-      <c r="U26" s="184"/>
-      <c r="V26" s="184"/>
-      <c r="W26" s="184"/>
-      <c r="X26" s="184"/>
-      <c r="Y26" s="184"/>
-      <c r="Z26" s="184"/>
-      <c r="AA26" s="184"/>
-      <c r="AB26" s="184"/>
-      <c r="AC26" s="184"/>
-      <c r="AD26" s="184"/>
-      <c r="AE26" s="184"/>
       <c r="AF26" s="179"/>
       <c r="AG26" s="179"/>
       <c r="AH26" s="179"/>
@@ -43840,246 +42256,12 @@
       <c r="AK26" s="179"/>
       <c r="AL26" s="179"/>
     </row>
-    <row r="27" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A27" s="184"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="184"/>
-      <c r="K27" s="184"/>
-      <c r="L27" s="184"/>
-      <c r="M27" s="184"/>
-      <c r="N27" s="184"/>
-      <c r="O27" s="184"/>
-      <c r="P27" s="184"/>
-      <c r="Q27" s="184"/>
-      <c r="R27" s="184"/>
-      <c r="S27" s="184"/>
-      <c r="T27" s="184"/>
-      <c r="U27" s="184"/>
-      <c r="V27" s="184"/>
-      <c r="W27" s="184"/>
-      <c r="X27" s="184"/>
-      <c r="Y27" s="184"/>
-      <c r="Z27" s="184"/>
-      <c r="AA27" s="184"/>
-      <c r="AB27" s="184"/>
-      <c r="AC27" s="184"/>
-      <c r="AD27" s="184"/>
-      <c r="AE27" s="184"/>
-      <c r="AF27" s="184"/>
-      <c r="AG27" s="184"/>
-      <c r="AH27" s="184"/>
-      <c r="AI27" s="184"/>
-      <c r="AJ27" s="184"/>
-      <c r="AK27" s="184"/>
-      <c r="AL27" s="184"/>
-    </row>
-    <row r="28" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A28" s="184"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="184"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="184"/>
-      <c r="O28" s="184"/>
-      <c r="P28" s="184"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="184"/>
-      <c r="S28" s="184"/>
-      <c r="T28" s="184"/>
-      <c r="U28" s="184"/>
-      <c r="V28" s="184"/>
-      <c r="W28" s="184"/>
-      <c r="X28" s="184"/>
-      <c r="Y28" s="184"/>
-      <c r="Z28" s="184"/>
-      <c r="AA28" s="184"/>
-      <c r="AB28" s="184"/>
-      <c r="AC28" s="184"/>
-      <c r="AD28" s="184"/>
-      <c r="AE28" s="184"/>
-      <c r="AF28" s="184"/>
-      <c r="AG28" s="184"/>
-      <c r="AH28" s="184"/>
-      <c r="AI28" s="184"/>
-      <c r="AJ28" s="184"/>
-      <c r="AK28" s="184"/>
-      <c r="AL28" s="184"/>
-    </row>
-    <row r="29" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A29" s="184"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="184"/>
-      <c r="D29" s="184"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="184"/>
-      <c r="K29" s="184"/>
-      <c r="L29" s="184"/>
-      <c r="M29" s="184"/>
-      <c r="N29" s="184"/>
-      <c r="O29" s="184"/>
-      <c r="P29" s="184"/>
-      <c r="Q29" s="184"/>
-      <c r="R29" s="184"/>
-      <c r="S29" s="184"/>
-      <c r="T29" s="184"/>
-      <c r="U29" s="184"/>
-      <c r="V29" s="184"/>
-      <c r="W29" s="184"/>
-      <c r="X29" s="184"/>
-      <c r="Y29" s="184"/>
-      <c r="Z29" s="184"/>
-      <c r="AA29" s="184"/>
-      <c r="AB29" s="184"/>
-      <c r="AC29" s="184"/>
-      <c r="AD29" s="184"/>
-      <c r="AE29" s="184"/>
-      <c r="AF29" s="184"/>
-      <c r="AG29" s="184"/>
-      <c r="AH29" s="184"/>
-      <c r="AI29" s="184"/>
-      <c r="AJ29" s="184"/>
-      <c r="AK29" s="184"/>
-      <c r="AL29" s="184"/>
-    </row>
-    <row r="30" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A30" s="184"/>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="184"/>
-      <c r="L30" s="184"/>
-      <c r="M30" s="184"/>
-      <c r="N30" s="184"/>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="184"/>
-      <c r="AC30" s="184"/>
-      <c r="AD30" s="184"/>
-      <c r="AE30" s="184"/>
-      <c r="AF30" s="184"/>
-      <c r="AG30" s="184"/>
-      <c r="AH30" s="184"/>
-      <c r="AI30" s="184"/>
-      <c r="AJ30" s="184"/>
-      <c r="AK30" s="184"/>
-      <c r="AL30" s="184"/>
-    </row>
-    <row r="31" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A31" s="184"/>
-      <c r="B31" s="184"/>
-      <c r="C31" s="184"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="184"/>
-      <c r="L31" s="184"/>
-      <c r="M31" s="184"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="184"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="184"/>
-      <c r="S31" s="184"/>
-      <c r="T31" s="184"/>
-      <c r="U31" s="184"/>
-      <c r="V31" s="184"/>
-      <c r="W31" s="184"/>
-      <c r="X31" s="184"/>
-      <c r="Y31" s="184"/>
-      <c r="Z31" s="184"/>
-      <c r="AA31" s="184"/>
-      <c r="AB31" s="184"/>
-      <c r="AC31" s="184"/>
-      <c r="AD31" s="184"/>
-      <c r="AE31" s="184"/>
-      <c r="AF31" s="184"/>
-      <c r="AG31" s="184"/>
-      <c r="AH31" s="184"/>
-      <c r="AI31" s="184"/>
-      <c r="AJ31" s="184"/>
-      <c r="AK31" s="184"/>
-      <c r="AL31" s="184"/>
-    </row>
-    <row r="32" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A32" s="184"/>
-      <c r="B32" s="184"/>
-      <c r="C32" s="184"/>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="184"/>
-      <c r="K32" s="184"/>
-      <c r="L32" s="184"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="184"/>
-      <c r="O32" s="184"/>
-      <c r="P32" s="184"/>
-      <c r="Q32" s="184"/>
-      <c r="R32" s="184"/>
-      <c r="S32" s="184"/>
-      <c r="T32" s="184"/>
-      <c r="U32" s="184"/>
-      <c r="V32" s="184"/>
-      <c r="W32" s="184"/>
-      <c r="X32" s="184"/>
-      <c r="Y32" s="184"/>
-      <c r="Z32" s="184"/>
-      <c r="AA32" s="184"/>
-      <c r="AB32" s="184"/>
-      <c r="AC32" s="184"/>
-      <c r="AD32" s="184"/>
-      <c r="AE32" s="184"/>
-      <c r="AF32" s="184"/>
-      <c r="AG32" s="184"/>
-      <c r="AH32" s="184"/>
-      <c r="AI32" s="184"/>
-      <c r="AJ32" s="184"/>
-      <c r="AK32" s="184"/>
-      <c r="AL32" s="184"/>
-    </row>
+    <row r="27" spans="1:38" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:38" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:38" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:38" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:38" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:38" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -45044,14 +43226,14 @@
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" customWidth="1"/>
-    <col min="4" max="4" width="75.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" customWidth="1"/>
+    <col min="4" max="4" width="75.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
     <col min="7" max="24" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -51501,318 +49683,18 @@
       <c r="W244" s="154"/>
       <c r="X244" s="154"/>
     </row>
-    <row r="245" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A245" s="184"/>
-      <c r="B245" s="184"/>
-      <c r="C245" s="184"/>
-      <c r="D245" s="184"/>
-      <c r="E245" s="184"/>
-      <c r="F245" s="184"/>
-      <c r="G245" s="184"/>
-      <c r="H245" s="184"/>
-      <c r="I245" s="184"/>
-      <c r="J245" s="184"/>
-      <c r="K245" s="184"/>
-      <c r="L245" s="184"/>
-      <c r="M245" s="184"/>
-      <c r="N245" s="184"/>
-      <c r="O245" s="184"/>
-      <c r="P245" s="184"/>
-      <c r="Q245" s="184"/>
-      <c r="R245" s="184"/>
-      <c r="S245" s="184"/>
-      <c r="T245" s="184"/>
-      <c r="U245" s="184"/>
-      <c r="V245" s="184"/>
-      <c r="W245" s="184"/>
-      <c r="X245" s="184"/>
-    </row>
-    <row r="246" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A246" s="184"/>
-      <c r="B246" s="184"/>
-      <c r="C246" s="184"/>
-      <c r="D246" s="184"/>
-      <c r="E246" s="184"/>
-      <c r="F246" s="184"/>
-      <c r="G246" s="184"/>
-      <c r="H246" s="184"/>
-      <c r="I246" s="184"/>
-      <c r="J246" s="184"/>
-      <c r="K246" s="184"/>
-      <c r="L246" s="184"/>
-      <c r="M246" s="184"/>
-      <c r="N246" s="184"/>
-      <c r="O246" s="184"/>
-      <c r="P246" s="184"/>
-      <c r="Q246" s="184"/>
-      <c r="R246" s="184"/>
-      <c r="S246" s="184"/>
-      <c r="T246" s="184"/>
-      <c r="U246" s="184"/>
-      <c r="V246" s="184"/>
-      <c r="W246" s="184"/>
-      <c r="X246" s="184"/>
-    </row>
-    <row r="247" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A247" s="184"/>
-      <c r="B247" s="184"/>
-      <c r="C247" s="184"/>
-      <c r="D247" s="184"/>
-      <c r="E247" s="184"/>
-      <c r="F247" s="184"/>
-      <c r="G247" s="184"/>
-      <c r="H247" s="184"/>
-      <c r="I247" s="184"/>
-      <c r="J247" s="184"/>
-      <c r="K247" s="184"/>
-      <c r="L247" s="184"/>
-      <c r="M247" s="184"/>
-      <c r="N247" s="184"/>
-      <c r="O247" s="184"/>
-      <c r="P247" s="184"/>
-      <c r="Q247" s="184"/>
-      <c r="R247" s="184"/>
-      <c r="S247" s="184"/>
-      <c r="T247" s="184"/>
-      <c r="U247" s="184"/>
-      <c r="V247" s="184"/>
-      <c r="W247" s="184"/>
-      <c r="X247" s="184"/>
-    </row>
-    <row r="248" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A248" s="184"/>
-      <c r="B248" s="184"/>
-      <c r="C248" s="184"/>
-      <c r="D248" s="184"/>
-      <c r="E248" s="184"/>
-      <c r="F248" s="184"/>
-      <c r="G248" s="184"/>
-      <c r="H248" s="184"/>
-      <c r="I248" s="184"/>
-      <c r="J248" s="184"/>
-      <c r="K248" s="184"/>
-      <c r="L248" s="184"/>
-      <c r="M248" s="184"/>
-      <c r="N248" s="184"/>
-      <c r="O248" s="184"/>
-      <c r="P248" s="184"/>
-      <c r="Q248" s="184"/>
-      <c r="R248" s="184"/>
-      <c r="S248" s="184"/>
-      <c r="T248" s="184"/>
-      <c r="U248" s="184"/>
-      <c r="V248" s="184"/>
-      <c r="W248" s="184"/>
-      <c r="X248" s="184"/>
-    </row>
-    <row r="249" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A249" s="184"/>
-      <c r="B249" s="184"/>
-      <c r="C249" s="184"/>
-      <c r="D249" s="184"/>
-      <c r="E249" s="184"/>
-      <c r="F249" s="184"/>
-      <c r="G249" s="184"/>
-      <c r="H249" s="184"/>
-      <c r="I249" s="184"/>
-      <c r="J249" s="184"/>
-      <c r="K249" s="184"/>
-      <c r="L249" s="184"/>
-      <c r="M249" s="184"/>
-      <c r="N249" s="184"/>
-      <c r="O249" s="184"/>
-      <c r="P249" s="184"/>
-      <c r="Q249" s="184"/>
-      <c r="R249" s="184"/>
-      <c r="S249" s="184"/>
-      <c r="T249" s="184"/>
-      <c r="U249" s="184"/>
-      <c r="V249" s="184"/>
-      <c r="W249" s="184"/>
-      <c r="X249" s="184"/>
-    </row>
-    <row r="250" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A250" s="184"/>
-      <c r="B250" s="184"/>
-      <c r="C250" s="184"/>
-      <c r="D250" s="184"/>
-      <c r="E250" s="184"/>
-      <c r="F250" s="184"/>
-      <c r="G250" s="184"/>
-      <c r="H250" s="184"/>
-      <c r="I250" s="184"/>
-      <c r="J250" s="184"/>
-      <c r="K250" s="184"/>
-      <c r="L250" s="184"/>
-      <c r="M250" s="184"/>
-      <c r="N250" s="184"/>
-      <c r="O250" s="184"/>
-      <c r="P250" s="184"/>
-      <c r="Q250" s="184"/>
-      <c r="R250" s="184"/>
-      <c r="S250" s="184"/>
-      <c r="T250" s="184"/>
-      <c r="U250" s="184"/>
-      <c r="V250" s="184"/>
-      <c r="W250" s="184"/>
-      <c r="X250" s="184"/>
-    </row>
-    <row r="251" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A251" s="184"/>
-      <c r="B251" s="184"/>
-      <c r="C251" s="184"/>
-      <c r="D251" s="184"/>
-      <c r="E251" s="184"/>
-      <c r="F251" s="184"/>
-      <c r="G251" s="184"/>
-      <c r="H251" s="184"/>
-      <c r="I251" s="184"/>
-      <c r="J251" s="184"/>
-      <c r="K251" s="184"/>
-      <c r="L251" s="184"/>
-      <c r="M251" s="184"/>
-      <c r="N251" s="184"/>
-      <c r="O251" s="184"/>
-      <c r="P251" s="184"/>
-      <c r="Q251" s="184"/>
-      <c r="R251" s="184"/>
-      <c r="S251" s="184"/>
-      <c r="T251" s="184"/>
-      <c r="U251" s="184"/>
-      <c r="V251" s="184"/>
-      <c r="W251" s="184"/>
-      <c r="X251" s="184"/>
-    </row>
-    <row r="252" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A252" s="184"/>
-      <c r="B252" s="184"/>
-      <c r="C252" s="184"/>
-      <c r="D252" s="184"/>
-      <c r="E252" s="184"/>
-      <c r="F252" s="184"/>
-      <c r="G252" s="184"/>
-      <c r="H252" s="184"/>
-      <c r="I252" s="184"/>
-      <c r="J252" s="184"/>
-      <c r="K252" s="184"/>
-      <c r="L252" s="184"/>
-      <c r="M252" s="184"/>
-      <c r="N252" s="184"/>
-      <c r="O252" s="184"/>
-      <c r="P252" s="184"/>
-      <c r="Q252" s="184"/>
-      <c r="R252" s="184"/>
-      <c r="S252" s="184"/>
-      <c r="T252" s="184"/>
-      <c r="U252" s="184"/>
-      <c r="V252" s="184"/>
-      <c r="W252" s="184"/>
-      <c r="X252" s="184"/>
-    </row>
-    <row r="253" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A253" s="184"/>
-      <c r="B253" s="184"/>
-      <c r="C253" s="184"/>
-      <c r="D253" s="184"/>
-      <c r="E253" s="184"/>
-      <c r="F253" s="184"/>
-      <c r="G253" s="184"/>
-      <c r="H253" s="184"/>
-      <c r="I253" s="184"/>
-      <c r="J253" s="184"/>
-      <c r="K253" s="184"/>
-      <c r="L253" s="184"/>
-      <c r="M253" s="184"/>
-      <c r="N253" s="184"/>
-      <c r="O253" s="184"/>
-      <c r="P253" s="184"/>
-      <c r="Q253" s="184"/>
-      <c r="R253" s="184"/>
-      <c r="S253" s="184"/>
-      <c r="T253" s="184"/>
-      <c r="U253" s="184"/>
-      <c r="V253" s="184"/>
-      <c r="W253" s="184"/>
-      <c r="X253" s="184"/>
-    </row>
-    <row r="254" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A254" s="184"/>
-      <c r="B254" s="184"/>
-      <c r="C254" s="184"/>
-      <c r="D254" s="184"/>
-      <c r="E254" s="184"/>
-      <c r="F254" s="184"/>
-      <c r="G254" s="184"/>
-      <c r="H254" s="184"/>
-      <c r="I254" s="184"/>
-      <c r="J254" s="184"/>
-      <c r="K254" s="184"/>
-      <c r="L254" s="184"/>
-      <c r="M254" s="184"/>
-      <c r="N254" s="184"/>
-      <c r="O254" s="184"/>
-      <c r="P254" s="184"/>
-      <c r="Q254" s="184"/>
-      <c r="R254" s="184"/>
-      <c r="S254" s="184"/>
-      <c r="T254" s="184"/>
-      <c r="U254" s="184"/>
-      <c r="V254" s="184"/>
-      <c r="W254" s="184"/>
-      <c r="X254" s="184"/>
-    </row>
-    <row r="255" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A255" s="184"/>
-      <c r="B255" s="184"/>
-      <c r="C255" s="184"/>
-      <c r="D255" s="184"/>
-      <c r="E255" s="184"/>
-      <c r="F255" s="184"/>
-      <c r="G255" s="184"/>
-      <c r="H255" s="184"/>
-      <c r="I255" s="184"/>
-      <c r="J255" s="184"/>
-      <c r="K255" s="184"/>
-      <c r="L255" s="184"/>
-      <c r="M255" s="184"/>
-      <c r="N255" s="184"/>
-      <c r="O255" s="184"/>
-      <c r="P255" s="184"/>
-      <c r="Q255" s="184"/>
-      <c r="R255" s="184"/>
-      <c r="S255" s="184"/>
-      <c r="T255" s="184"/>
-      <c r="U255" s="184"/>
-      <c r="V255" s="184"/>
-      <c r="W255" s="184"/>
-      <c r="X255" s="184"/>
-    </row>
-    <row r="256" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A256" s="184"/>
-      <c r="B256" s="184"/>
-      <c r="C256" s="184"/>
-      <c r="D256" s="184"/>
-      <c r="E256" s="184"/>
-      <c r="F256" s="184"/>
-      <c r="G256" s="184"/>
-      <c r="H256" s="184"/>
-      <c r="I256" s="184"/>
-      <c r="J256" s="184"/>
-      <c r="K256" s="184"/>
-      <c r="L256" s="184"/>
-      <c r="M256" s="184"/>
-      <c r="N256" s="184"/>
-      <c r="O256" s="184"/>
-      <c r="P256" s="184"/>
-      <c r="Q256" s="184"/>
-      <c r="R256" s="184"/>
-      <c r="S256" s="184"/>
-      <c r="T256" s="184"/>
-      <c r="U256" s="184"/>
-      <c r="V256" s="184"/>
-      <c r="W256" s="184"/>
-      <c r="X256" s="184"/>
-    </row>
+    <row r="245" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="246" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="247" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="248" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="249" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="250" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="251" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="252" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="253" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="254" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="255" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="256" spans="1:24" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
